--- a/state_results/Rivers/MangatainokaatusTiraumeaConfluence_25b580ea8d.xlsx
+++ b/state_results/Rivers/MangatainokaatusTiraumeaConfluence_25b580ea8d.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U169"/>
+  <dimension ref="A1:U190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,7 +728,7 @@
         <v>2.45</v>
       </c>
       <c r="G4" t="n">
-        <v>2.50642384665571</v>
+        <v>2.50508584827796</v>
       </c>
       <c r="H4" t="n">
         <v>5.5</v>
@@ -809,7 +809,7 @@
         <v>0.007</v>
       </c>
       <c r="G5" t="n">
-        <v>0.008485915598109999</v>
+        <v>0.0084902524848112</v>
       </c>
       <c r="H5" t="n">
         <v>0.043</v>
@@ -890,7 +890,7 @@
         <v>0.007</v>
       </c>
       <c r="G6" t="n">
-        <v>0.008485915598109999</v>
+        <v>0.0084902524848112</v>
       </c>
       <c r="H6" t="n">
         <v>0.043</v>
@@ -1388,7 +1388,7 @@
         <v>0.00398</v>
       </c>
       <c r="G12" t="n">
-        <v>0.009666315060167</v>
+        <v>0.009660303468510101</v>
       </c>
       <c r="H12" t="n">
         <v>0.07000000000000001</v>
@@ -1469,7 +1469,7 @@
         <v>0.00398</v>
       </c>
       <c r="G13" t="n">
-        <v>0.009666315060167</v>
+        <v>0.009660303468510101</v>
       </c>
       <c r="H13" t="n">
         <v>0.07000000000000001</v>
@@ -1785,21 +1785,21 @@
         <v>0.867</v>
       </c>
       <c r="G17" t="n">
-        <v>0.859789473684211</v>
+        <v>0.859840350877193</v>
       </c>
       <c r="H17" t="n">
         <v>1.745</v>
       </c>
       <c r="I17" t="n">
-        <v>1.54035</v>
+        <v>1.54048</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>0.5395</v>
+        <v>0.53925</v>
       </c>
       <c r="M17" t="n">
-        <v>1.26208</v>
+        <v>1.26224</v>
       </c>
       <c r="N17" t="n">
         <v>1.48032</v>
@@ -1862,21 +1862,21 @@
         <v>0.867</v>
       </c>
       <c r="G18" t="n">
-        <v>0.859789473684211</v>
+        <v>0.859840350877193</v>
       </c>
       <c r="H18" t="n">
         <v>1.745</v>
       </c>
       <c r="I18" t="n">
-        <v>1.54035</v>
+        <v>1.54048</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>0.5395</v>
+        <v>0.53925</v>
       </c>
       <c r="M18" t="n">
-        <v>1.26208</v>
+        <v>1.26224</v>
       </c>
       <c r="N18" t="n">
         <v>1.48032</v>
@@ -2093,7 +2093,7 @@
         <v>0.014</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0192456832677677</v>
+        <v>0.0192471556329085</v>
       </c>
       <c r="H21" t="n">
         <v>0.061</v>
@@ -2170,7 +2170,7 @@
         <v>0.014</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0192456832677677</v>
+        <v>0.0192471556329085</v>
       </c>
       <c r="H22" t="n">
         <v>0.061</v>
@@ -2409,7 +2409,7 @@
         <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>2.89877721382614</v>
+        <v>2.89751495120562</v>
       </c>
       <c r="H25" t="n">
         <v>6.72</v>
@@ -2426,7 +2426,7 @@
         <v>4.5392</v>
       </c>
       <c r="N25" t="n">
-        <v>5.35658</v>
+        <v>5.30708</v>
       </c>
       <c r="O25" t="n">
         <v>1844630.998</v>
@@ -2490,7 +2490,7 @@
         <v>0.007</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0082443097112715</v>
+        <v>0.008251368223150601</v>
       </c>
       <c r="H26" t="n">
         <v>0.043</v>
@@ -2571,7 +2571,7 @@
         <v>0.007</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0082443097112715</v>
+        <v>0.008251368223150601</v>
       </c>
       <c r="H27" t="n">
         <v>0.043</v>
@@ -3066,10 +3066,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.00277</v>
+        <v>0.00272</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0091123737781481</v>
+        <v>0.0090741007368037</v>
       </c>
       <c r="H33" t="n">
         <v>0.07000000000000001</v>
@@ -3147,10 +3147,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.00277</v>
+        <v>0.00272</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0091123737781481</v>
+        <v>0.0090741007368037</v>
       </c>
       <c r="H34" t="n">
         <v>0.07000000000000001</v>
@@ -3463,16 +3463,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.8745000000000001</v>
+        <v>0.87465</v>
       </c>
       <c r="G38" t="n">
-        <v>0.87775</v>
+        <v>0.877798333333333</v>
       </c>
       <c r="H38" t="n">
         <v>1.765</v>
       </c>
       <c r="I38" t="n">
-        <v>1.597</v>
+        <v>1.5972</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -3480,7 +3480,7 @@
         <v>0.545</v>
       </c>
       <c r="M38" t="n">
-        <v>1.299</v>
+        <v>1.29914</v>
       </c>
       <c r="N38" t="n">
         <v>1.4969</v>
@@ -3540,16 +3540,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.8745000000000001</v>
+        <v>0.87465</v>
       </c>
       <c r="G39" t="n">
-        <v>0.87775</v>
+        <v>0.877798333333333</v>
       </c>
       <c r="H39" t="n">
         <v>1.765</v>
       </c>
       <c r="I39" t="n">
-        <v>1.597</v>
+        <v>1.5972</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -3557,7 +3557,7 @@
         <v>0.545</v>
       </c>
       <c r="M39" t="n">
-        <v>1.299</v>
+        <v>1.29914</v>
       </c>
       <c r="N39" t="n">
         <v>1.4969</v>
@@ -3774,7 +3774,7 @@
         <v>0.0145</v>
       </c>
       <c r="G42" t="n">
-        <v>0.019350065771046</v>
+        <v>0.0193514645179297</v>
       </c>
       <c r="H42" t="n">
         <v>0.061</v>
@@ -3851,7 +3851,7 @@
         <v>0.0145</v>
       </c>
       <c r="G43" t="n">
-        <v>0.019350065771046</v>
+        <v>0.0193514645179297</v>
       </c>
       <c r="H43" t="n">
         <v>0.061</v>
@@ -4090,7 +4090,7 @@
         <v>3</v>
       </c>
       <c r="G46" t="n">
-        <v>2.85652129165688</v>
+        <v>2.85532665024818</v>
       </c>
       <c r="H46" t="n">
         <v>6.72</v>
@@ -4107,7 +4107,7 @@
         <v>4.4996</v>
       </c>
       <c r="N46" t="n">
-        <v>5.31007</v>
+        <v>5.24451</v>
       </c>
       <c r="O46" t="n">
         <v>1844630.998</v>
@@ -4171,7 +4171,7 @@
         <v>0.007</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0084248416381677</v>
+        <v>0.0084299678186564</v>
       </c>
       <c r="H47" t="n">
         <v>0.043</v>
@@ -4252,7 +4252,7 @@
         <v>0.007</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0084248416381677</v>
+        <v>0.0084299678186564</v>
       </c>
       <c r="H48" t="n">
         <v>0.043</v>
@@ -4747,10 +4747,10 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.00148</v>
+        <v>0.00139</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0050542622494768</v>
+        <v>0.0049985323150384</v>
       </c>
       <c r="H54" t="n">
         <v>0.0364651566433847</v>
@@ -4761,10 +4761,10 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>0.00155</v>
+        <v>0.00146</v>
       </c>
       <c r="M54" t="n">
-        <v>0.01094</v>
+        <v>0.01028</v>
       </c>
       <c r="N54" t="n">
         <v>0.0183</v>
@@ -4828,10 +4828,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.00148</v>
+        <v>0.00139</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0050542622494768</v>
+        <v>0.0049985323150384</v>
       </c>
       <c r="H55" t="n">
         <v>0.0364651566433847</v>
@@ -4842,10 +4842,10 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>0.00155</v>
+        <v>0.00146</v>
       </c>
       <c r="M55" t="n">
-        <v>0.01094</v>
+        <v>0.01028</v>
       </c>
       <c r="N55" t="n">
         <v>0.0183</v>
@@ -4912,7 +4912,7 @@
         <v>0.8383</v>
       </c>
       <c r="G56" t="n">
-        <v>0.841621339806035</v>
+        <v>0.84156891049446</v>
       </c>
       <c r="H56" t="n">
         <v>1.76</v>
@@ -4993,7 +4993,7 @@
         <v>0.8383</v>
       </c>
       <c r="G57" t="n">
-        <v>0.841621339806035</v>
+        <v>0.84156891049446</v>
       </c>
       <c r="H57" t="n">
         <v>1.76</v>
@@ -5144,16 +5144,16 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.8705000000000001</v>
+        <v>0.87065</v>
       </c>
       <c r="G59" t="n">
-        <v>0.8528</v>
+        <v>0.852848333333333</v>
       </c>
       <c r="H59" t="n">
         <v>1.765</v>
       </c>
       <c r="I59" t="n">
-        <v>1.588</v>
+        <v>1.5881</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -5221,16 +5221,16 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.8705000000000001</v>
+        <v>0.87065</v>
       </c>
       <c r="G60" t="n">
-        <v>0.8528</v>
+        <v>0.852848333333333</v>
       </c>
       <c r="H60" t="n">
         <v>1.765</v>
       </c>
       <c r="I60" t="n">
-        <v>1.588</v>
+        <v>1.5881</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -5852,7 +5852,7 @@
         <v>0.007</v>
       </c>
       <c r="G68" t="n">
-        <v>0.008594498523732799</v>
+        <v>0.008603005471557301</v>
       </c>
       <c r="H68" t="n">
         <v>0.043</v>
@@ -5933,7 +5933,7 @@
         <v>0.007</v>
       </c>
       <c r="G69" t="n">
-        <v>0.008594498523732799</v>
+        <v>0.008603005471557301</v>
       </c>
       <c r="H69" t="n">
         <v>0.043</v>
@@ -6428,10 +6428,10 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.00168</v>
+        <v>0.00158</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0040934110597488</v>
+        <v>0.0040076830034551</v>
       </c>
       <c r="H75" t="n">
         <v>0.034581543466489</v>
@@ -6442,10 +6442,10 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
-        <v>0.00168</v>
+        <v>0.00158</v>
       </c>
       <c r="M75" t="n">
-        <v>0.00545</v>
+        <v>0.00513</v>
       </c>
       <c r="N75" t="n">
         <v>0.01361</v>
@@ -6509,10 +6509,10 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.00168</v>
+        <v>0.00158</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0040934110597488</v>
+        <v>0.0040076830034551</v>
       </c>
       <c r="H76" t="n">
         <v>0.034581543466489</v>
@@ -6523,10 +6523,10 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>0.00168</v>
+        <v>0.00158</v>
       </c>
       <c r="M76" t="n">
-        <v>0.00545</v>
+        <v>0.00513</v>
       </c>
       <c r="N76" t="n">
         <v>0.01361</v>
@@ -6593,7 +6593,7 @@
         <v>0.8478</v>
       </c>
       <c r="G77" t="n">
-        <v>0.844811339806035</v>
+        <v>0.8447589104944599</v>
       </c>
       <c r="H77" t="n">
         <v>1.76</v>
@@ -6674,7 +6674,7 @@
         <v>0.8478</v>
       </c>
       <c r="G78" t="n">
-        <v>0.844811339806035</v>
+        <v>0.8447589104944599</v>
       </c>
       <c r="H78" t="n">
         <v>1.76</v>
@@ -6825,16 +6825,16 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.8735000000000001</v>
+        <v>0.87365</v>
       </c>
       <c r="G80" t="n">
-        <v>0.8555</v>
+        <v>0.855535</v>
       </c>
       <c r="H80" t="n">
         <v>1.765</v>
       </c>
       <c r="I80" t="n">
-        <v>1.588</v>
+        <v>1.5881</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -6902,16 +6902,16 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.8735000000000001</v>
+        <v>0.87365</v>
       </c>
       <c r="G81" t="n">
-        <v>0.8555</v>
+        <v>0.855535</v>
       </c>
       <c r="H81" t="n">
         <v>1.765</v>
       </c>
       <c r="I81" t="n">
-        <v>1.588</v>
+        <v>1.5881</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -7533,7 +7533,7 @@
         <v>0.007</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0076080750228172</v>
+        <v>0.0076260182978601</v>
       </c>
       <c r="H89" t="n">
         <v>0.039</v>
@@ -7614,7 +7614,7 @@
         <v>0.007</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0076080750228172</v>
+        <v>0.0076260182978601</v>
       </c>
       <c r="H90" t="n">
         <v>0.039</v>
@@ -8109,10 +8109,10 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.00201</v>
+        <v>0.00189</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0057569819183182</v>
+        <v>0.0056102614337861</v>
       </c>
       <c r="H96" t="n">
         <v>0.1</v>
@@ -8123,13 +8123,13 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
-        <v>0.00214</v>
+        <v>0.00201</v>
       </c>
       <c r="M96" t="n">
-        <v>0.00777</v>
+        <v>0.00741</v>
       </c>
       <c r="N96" t="n">
-        <v>0.01172</v>
+        <v>0.01116</v>
       </c>
       <c r="O96" t="n">
         <v>1844630.998</v>
@@ -8190,10 +8190,10 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.00201</v>
+        <v>0.00189</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0057569819183182</v>
+        <v>0.0056102614337861</v>
       </c>
       <c r="H97" t="n">
         <v>0.1</v>
@@ -8204,13 +8204,13 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
-        <v>0.00214</v>
+        <v>0.00201</v>
       </c>
       <c r="M97" t="n">
-        <v>0.00777</v>
+        <v>0.00741</v>
       </c>
       <c r="N97" t="n">
-        <v>0.01172</v>
+        <v>0.01116</v>
       </c>
       <c r="O97" t="n">
         <v>1844630.998</v>
@@ -8274,7 +8274,7 @@
         <v>0.8179999999999999</v>
       </c>
       <c r="G98" t="n">
-        <v>0.840831870989188</v>
+        <v>0.840778553045213</v>
       </c>
       <c r="H98" t="n">
         <v>1.76</v>
@@ -8355,7 +8355,7 @@
         <v>0.8179999999999999</v>
       </c>
       <c r="G99" t="n">
-        <v>0.840831870989188</v>
+        <v>0.840778553045213</v>
       </c>
       <c r="H99" t="n">
         <v>1.76</v>
@@ -8509,7 +8509,7 @@
         <v>0.843</v>
       </c>
       <c r="G101" t="n">
-        <v>0.851677966101695</v>
+        <v>0.851701694915254</v>
       </c>
       <c r="H101" t="n">
         <v>1.765</v>
@@ -8586,7 +8586,7 @@
         <v>0.843</v>
       </c>
       <c r="G102" t="n">
-        <v>0.851677966101695</v>
+        <v>0.851701694915254</v>
       </c>
       <c r="H102" t="n">
         <v>1.765</v>
@@ -9214,7 +9214,7 @@
         <v>0.006</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0064018864251687</v>
+        <v>0.0064191747811515</v>
       </c>
       <c r="H110" t="n">
         <v>0.014</v>
@@ -9295,7 +9295,7 @@
         <v>0.006</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0064018864251687</v>
+        <v>0.0064191747811515</v>
       </c>
       <c r="H111" t="n">
         <v>0.014</v>
@@ -9790,10 +9790,10 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0.00307</v>
+        <v>0.00288</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0069566072019636</v>
+        <v>0.0068063128234476</v>
       </c>
       <c r="H117" t="n">
         <v>0.1</v>
@@ -9804,13 +9804,13 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
-        <v>0.00593</v>
+        <v>0.00553</v>
       </c>
       <c r="M117" t="n">
-        <v>0.01026</v>
+        <v>0.009849999999999999</v>
       </c>
       <c r="N117" t="n">
-        <v>0.01274</v>
+        <v>0.01248</v>
       </c>
       <c r="O117" t="n">
         <v>1844630.998</v>
@@ -9871,10 +9871,10 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0.00307</v>
+        <v>0.00288</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0069566072019636</v>
+        <v>0.0068063128234476</v>
       </c>
       <c r="H118" t="n">
         <v>0.1</v>
@@ -9885,13 +9885,13 @@
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
-        <v>0.00593</v>
+        <v>0.00553</v>
       </c>
       <c r="M118" t="n">
-        <v>0.01026</v>
+        <v>0.009849999999999999</v>
       </c>
       <c r="N118" t="n">
-        <v>0.01274</v>
+        <v>0.01248</v>
       </c>
       <c r="O118" t="n">
         <v>1844630.998</v>
@@ -9955,7 +9955,7 @@
         <v>0.729</v>
       </c>
       <c r="G119" t="n">
-        <v>0.791884144626933</v>
+        <v>0.791829907408062</v>
       </c>
       <c r="H119" t="n">
         <v>1.76</v>
@@ -10036,7 +10036,7 @@
         <v>0.729</v>
       </c>
       <c r="G120" t="n">
-        <v>0.791884144626933</v>
+        <v>0.791829907408062</v>
       </c>
       <c r="H120" t="n">
         <v>1.76</v>
@@ -10895,7 +10895,7 @@
         <v>0.006</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0064793726886768</v>
+        <v>0.0064931905339948</v>
       </c>
       <c r="H131" t="n">
         <v>0.016</v>
@@ -10976,7 +10976,7 @@
         <v>0.006</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0064793726886768</v>
+        <v>0.0064931905339948</v>
       </c>
       <c r="H132" t="n">
         <v>0.016</v>
@@ -11057,10 +11057,10 @@
         <v>160</v>
       </c>
       <c r="G133" t="n">
-        <v>816.63522544355</v>
+        <v>848.219148267504</v>
       </c>
       <c r="H133" t="n">
-        <v>7900</v>
+        <v>8385.08343542343</v>
       </c>
       <c r="I133" t="n">
         <v>3600</v>
@@ -11142,10 +11142,10 @@
         <v>160</v>
       </c>
       <c r="G134" t="n">
-        <v>816.63522544355</v>
+        <v>848.219148267504</v>
       </c>
       <c r="H134" t="n">
-        <v>7900</v>
+        <v>8385.08343542343</v>
       </c>
       <c r="I134" t="n">
         <v>3600</v>
@@ -11227,10 +11227,10 @@
         <v>160</v>
       </c>
       <c r="G135" t="n">
-        <v>816.63522544355</v>
+        <v>848.219148267504</v>
       </c>
       <c r="H135" t="n">
-        <v>7900</v>
+        <v>8385.08343542343</v>
       </c>
       <c r="I135" t="n">
         <v>3600</v>
@@ -11312,10 +11312,10 @@
         <v>160</v>
       </c>
       <c r="G136" t="n">
-        <v>816.63522544355</v>
+        <v>848.219148267504</v>
       </c>
       <c r="H136" t="n">
-        <v>7900</v>
+        <v>8385.08343542343</v>
       </c>
       <c r="I136" t="n">
         <v>3600</v>
@@ -11474,7 +11474,7 @@
         <v>0.00336</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0074842532187193</v>
+        <v>0.0073735314861856</v>
       </c>
       <c r="H138" t="n">
         <v>0.1</v>
@@ -11488,7 +11488,7 @@
         <v>0.00643</v>
       </c>
       <c r="M138" t="n">
-        <v>0.01017</v>
+        <v>0.009849999999999999</v>
       </c>
       <c r="N138" t="n">
         <v>0.01567</v>
@@ -11555,7 +11555,7 @@
         <v>0.00336</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0074842532187193</v>
+        <v>0.0073735314861856</v>
       </c>
       <c r="H139" t="n">
         <v>0.1</v>
@@ -11569,7 +11569,7 @@
         <v>0.00643</v>
       </c>
       <c r="M139" t="n">
-        <v>0.01017</v>
+        <v>0.009849999999999999</v>
       </c>
       <c r="N139" t="n">
         <v>0.01567</v>
@@ -11636,7 +11636,7 @@
         <v>0.718</v>
       </c>
       <c r="G140" t="n">
-        <v>0.727125523937277</v>
+        <v>0.727071286718407</v>
       </c>
       <c r="H140" t="n">
         <v>1.6</v>
@@ -11717,7 +11717,7 @@
         <v>0.718</v>
       </c>
       <c r="G141" t="n">
-        <v>0.727125523937277</v>
+        <v>0.727071286718407</v>
       </c>
       <c r="H141" t="n">
         <v>1.6</v>
@@ -11871,7 +11871,7 @@
         <v>0.728</v>
       </c>
       <c r="G143" t="n">
-        <v>0.738465517241379</v>
+        <v>0.738456896551724</v>
       </c>
       <c r="H143" t="n">
         <v>1.615</v>
@@ -11885,7 +11885,7 @@
         <v>0.48</v>
       </c>
       <c r="M143" t="n">
-        <v>1.20636</v>
+        <v>1.20618</v>
       </c>
       <c r="N143" t="n">
         <v>1.328</v>
@@ -11948,7 +11948,7 @@
         <v>0.728</v>
       </c>
       <c r="G144" t="n">
-        <v>0.738465517241379</v>
+        <v>0.738456896551724</v>
       </c>
       <c r="H144" t="n">
         <v>1.615</v>
@@ -11962,7 +11962,7 @@
         <v>0.48</v>
       </c>
       <c r="M144" t="n">
-        <v>1.20636</v>
+        <v>1.20618</v>
       </c>
       <c r="N144" t="n">
         <v>1.328</v>
@@ -12576,7 +12576,7 @@
         <v>0.006</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0071719932621623</v>
+        <v>0.0071860535258192</v>
       </c>
       <c r="H152" t="n">
         <v>0.027</v>
@@ -12657,7 +12657,7 @@
         <v>0.006</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0071719932621623</v>
+        <v>0.0071860535258192</v>
       </c>
       <c r="H153" t="n">
         <v>0.027</v>
@@ -12738,13 +12738,13 @@
         <v>170</v>
       </c>
       <c r="G154" t="n">
-        <v>1122.32368444933</v>
+        <v>1149.14361064997</v>
       </c>
       <c r="H154" t="n">
-        <v>8333.60693788601</v>
+        <v>8385.08343542343</v>
       </c>
       <c r="I154" t="n">
-        <v>7428.5492</v>
+        <v>7900</v>
       </c>
       <c r="J154" t="n">
         <v>35.0877192982456</v>
@@ -12823,13 +12823,13 @@
         <v>170</v>
       </c>
       <c r="G155" t="n">
-        <v>1122.32368444933</v>
+        <v>1149.14361064997</v>
       </c>
       <c r="H155" t="n">
-        <v>8333.60693788601</v>
+        <v>8385.08343542343</v>
       </c>
       <c r="I155" t="n">
-        <v>7428.5492</v>
+        <v>7900</v>
       </c>
       <c r="J155" t="n">
         <v>35.0877192982456</v>
@@ -12908,13 +12908,13 @@
         <v>170</v>
       </c>
       <c r="G156" t="n">
-        <v>1122.32368444933</v>
+        <v>1149.14361064997</v>
       </c>
       <c r="H156" t="n">
-        <v>8333.60693788601</v>
+        <v>8385.08343542343</v>
       </c>
       <c r="I156" t="n">
-        <v>7428.5492</v>
+        <v>7900</v>
       </c>
       <c r="J156" t="n">
         <v>35.0877192982456</v>
@@ -12993,13 +12993,13 @@
         <v>170</v>
       </c>
       <c r="G157" t="n">
-        <v>1122.32368444933</v>
+        <v>1149.14361064997</v>
       </c>
       <c r="H157" t="n">
-        <v>8333.60693788601</v>
+        <v>8385.08343542343</v>
       </c>
       <c r="I157" t="n">
-        <v>7428.5492</v>
+        <v>7900</v>
       </c>
       <c r="J157" t="n">
         <v>35.0877192982456</v>
@@ -13152,10 +13152,10 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0.00577</v>
+        <v>0.00557</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0093970346787219</v>
+        <v>0.0093051711559784</v>
       </c>
       <c r="H159" t="n">
         <v>0.1</v>
@@ -13166,7 +13166,7 @@
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
-        <v>0.008750000000000001</v>
+        <v>0.00842</v>
       </c>
       <c r="M159" t="n">
         <v>0.01081</v>
@@ -13233,10 +13233,10 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0.00577</v>
+        <v>0.00557</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0093970346787219</v>
+        <v>0.0093051711559784</v>
       </c>
       <c r="H160" t="n">
         <v>0.1</v>
@@ -13247,7 +13247,7 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
-        <v>0.008750000000000001</v>
+        <v>0.00842</v>
       </c>
       <c r="M160" t="n">
         <v>0.01081</v>
@@ -13552,7 +13552,7 @@
         <v>0.74</v>
       </c>
       <c r="G164" t="n">
-        <v>0.75180701754386</v>
+        <v>0.751798245614035</v>
       </c>
       <c r="H164" t="n">
         <v>1.389</v>
@@ -13629,7 +13629,7 @@
         <v>0.74</v>
       </c>
       <c r="G165" t="n">
-        <v>0.75180701754386</v>
+        <v>0.751798245614035</v>
       </c>
       <c r="H165" t="n">
         <v>1.389</v>
@@ -13988,6 +13988,1687 @@
         </is>
       </c>
     </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Tiraumea Confluence</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="O170" t="n">
+        <v>1844630.998</v>
+      </c>
+      <c r="P170" t="n">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T170" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Tiraumea Confluence</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>44</v>
+      </c>
+      <c r="G171" t="n">
+        <v>51.9459459459459</v>
+      </c>
+      <c r="H171" t="n">
+        <v>185</v>
+      </c>
+      <c r="I171" t="n">
+        <v>128.25</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>37.25</v>
+      </c>
+      <c r="M171" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="N171" t="n">
+        <v>125</v>
+      </c>
+      <c r="O171" t="n">
+        <v>1844630.998</v>
+      </c>
+      <c r="P171" t="n">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T171" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Tiraumea Confluence</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 3)</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1.67209090909091</v>
+      </c>
+      <c r="H172" t="n">
+        <v>5.554</v>
+      </c>
+      <c r="I172" t="n">
+        <v>5.265</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="M172" t="n">
+        <v>3.867</v>
+      </c>
+      <c r="N172" t="n">
+        <v>4.4804</v>
+      </c>
+      <c r="O172" t="n">
+        <v>1844630.998</v>
+      </c>
+      <c r="P172" t="n">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T172" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Tiraumea Confluence</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.0069255219522861</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0.01388</v>
+      </c>
+      <c r="O173" t="n">
+        <v>1844630.998</v>
+      </c>
+      <c r="P173" t="n">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T173" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Tiraumea Confluence</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.0069255219522861</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0.01388</v>
+      </c>
+      <c r="O174" t="n">
+        <v>1844630.998</v>
+      </c>
+      <c r="P174" t="n">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T174" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Tiraumea Confluence</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>160</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1143.19624222892</v>
+      </c>
+      <c r="H175" t="n">
+        <v>8385.08343542343</v>
+      </c>
+      <c r="I175" t="n">
+        <v>7900</v>
+      </c>
+      <c r="J175" t="n">
+        <v>36.8421052631579</v>
+      </c>
+      <c r="K175" t="n">
+        <v>45.6140350877193</v>
+      </c>
+      <c r="L175" t="n">
+        <v>267</v>
+      </c>
+      <c r="M175" t="n">
+        <v>1970.36</v>
+      </c>
+      <c r="N175" t="n">
+        <v>3848.68</v>
+      </c>
+      <c r="O175" t="n">
+        <v>1844630.998</v>
+      </c>
+      <c r="P175" t="n">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T175" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Tiraumea Confluence</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>160</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1143.19624222892</v>
+      </c>
+      <c r="H176" t="n">
+        <v>8385.08343542343</v>
+      </c>
+      <c r="I176" t="n">
+        <v>7900</v>
+      </c>
+      <c r="J176" t="n">
+        <v>36.8421052631579</v>
+      </c>
+      <c r="K176" t="n">
+        <v>45.6140350877193</v>
+      </c>
+      <c r="L176" t="n">
+        <v>267</v>
+      </c>
+      <c r="M176" t="n">
+        <v>1970.36</v>
+      </c>
+      <c r="N176" t="n">
+        <v>3848.68</v>
+      </c>
+      <c r="O176" t="n">
+        <v>1844630.998</v>
+      </c>
+      <c r="P176" t="n">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T176" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Tiraumea Confluence</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>160</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1143.19624222892</v>
+      </c>
+      <c r="H177" t="n">
+        <v>8385.08343542343</v>
+      </c>
+      <c r="I177" t="n">
+        <v>7900</v>
+      </c>
+      <c r="J177" t="n">
+        <v>36.8421052631579</v>
+      </c>
+      <c r="K177" t="n">
+        <v>45.6140350877193</v>
+      </c>
+      <c r="L177" t="n">
+        <v>267</v>
+      </c>
+      <c r="M177" t="n">
+        <v>1970.36</v>
+      </c>
+      <c r="N177" t="n">
+        <v>3848.68</v>
+      </c>
+      <c r="O177" t="n">
+        <v>1844630.998</v>
+      </c>
+      <c r="P177" t="n">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T177" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Tiraumea Confluence</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>160</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1143.19624222892</v>
+      </c>
+      <c r="H178" t="n">
+        <v>8385.08343542343</v>
+      </c>
+      <c r="I178" t="n">
+        <v>7900</v>
+      </c>
+      <c r="J178" t="n">
+        <v>36.8421052631579</v>
+      </c>
+      <c r="K178" t="n">
+        <v>45.6140350877193</v>
+      </c>
+      <c r="L178" t="n">
+        <v>267</v>
+      </c>
+      <c r="M178" t="n">
+        <v>1970.36</v>
+      </c>
+      <c r="N178" t="n">
+        <v>3848.68</v>
+      </c>
+      <c r="O178" t="n">
+        <v>1844630.998</v>
+      </c>
+      <c r="P178" t="n">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T178" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Tiraumea Confluence</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>95.29000000000001</v>
+      </c>
+      <c r="G179" t="n">
+        <v>95.358</v>
+      </c>
+      <c r="H179" t="n">
+        <v>110</v>
+      </c>
+      <c r="I179" t="n">
+        <v>110</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>96.395</v>
+      </c>
+      <c r="M179" t="n">
+        <v>105.625</v>
+      </c>
+      <c r="N179" t="n">
+        <v>110</v>
+      </c>
+      <c r="O179" t="n">
+        <v>1844630.998</v>
+      </c>
+      <c r="P179" t="n">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T179" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Tiraumea Confluence</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>0.00658</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.0102317497209716</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0.03379</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>0.00834</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0.01436</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0.02389</v>
+      </c>
+      <c r="O180" t="n">
+        <v>1844630.998</v>
+      </c>
+      <c r="P180" t="n">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T180" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Tiraumea Confluence</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>0.00658</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.0102317497209716</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0.03379</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>0.00834</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0.01436</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0.02389</v>
+      </c>
+      <c r="O181" t="n">
+        <v>1844630.998</v>
+      </c>
+      <c r="P181" t="n">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T181" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Tiraumea Confluence</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.743842105263158</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1.3265</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="M182" t="n">
+        <v>1.1181</v>
+      </c>
+      <c r="N182" t="n">
+        <v>1.2388</v>
+      </c>
+      <c r="O182" t="n">
+        <v>1844630.998</v>
+      </c>
+      <c r="P182" t="n">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T182" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Tiraumea Confluence</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.743842105263158</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1.3265</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="M183" t="n">
+        <v>1.1181</v>
+      </c>
+      <c r="N183" t="n">
+        <v>1.2388</v>
+      </c>
+      <c r="O183" t="n">
+        <v>1844630.998</v>
+      </c>
+      <c r="P183" t="n">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T183" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Tiraumea Confluence</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>5.259</v>
+      </c>
+      <c r="G184" t="n">
+        <v>5.0068</v>
+      </c>
+      <c r="H184" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="I184" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>5.272</v>
+      </c>
+      <c r="M184" t="n">
+        <v>5.28825</v>
+      </c>
+      <c r="N184" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="O184" t="n">
+        <v>1844630.998</v>
+      </c>
+      <c r="P184" t="n">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T184" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Tiraumea Confluence</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.761219298245614</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1.389</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1.348</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="M185" t="n">
+        <v>1.13543</v>
+      </c>
+      <c r="N185" t="n">
+        <v>1.2485</v>
+      </c>
+      <c r="O185" t="n">
+        <v>1844630.998</v>
+      </c>
+      <c r="P185" t="n">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T185" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Tiraumea Confluence</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.761219298245614</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1.389</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1.348</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="M186" t="n">
+        <v>1.13543</v>
+      </c>
+      <c r="N186" t="n">
+        <v>1.2485</v>
+      </c>
+      <c r="O186" t="n">
+        <v>1844630.998</v>
+      </c>
+      <c r="P186" t="n">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T186" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Tiraumea Confluence</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.93719298245614</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1.429</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="M187" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="N187" t="n">
+        <v>1.3394</v>
+      </c>
+      <c r="O187" t="n">
+        <v>1844630.998</v>
+      </c>
+      <c r="P187" t="n">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T187" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Tiraumea Confluence</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.93719298245614</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1.429</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="M188" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="N188" t="n">
+        <v>1.3394</v>
+      </c>
+      <c r="O188" t="n">
+        <v>1844630.998</v>
+      </c>
+      <c r="P188" t="n">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T188" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Tiraumea Confluence</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.0349473684210526</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0.12115</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0.06101</v>
+      </c>
+      <c r="N189" t="n">
+        <v>0.1125</v>
+      </c>
+      <c r="O189" t="n">
+        <v>1844630.998</v>
+      </c>
+      <c r="P189" t="n">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Tiraumea Confluence</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.0349473684210526</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.12115</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0.06101</v>
+      </c>
+      <c r="N190" t="n">
+        <v>0.1125</v>
+      </c>
+      <c r="O190" t="n">
+        <v>1844630.998</v>
+      </c>
+      <c r="P190" t="n">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MangatainokaatusTiraumeaConfluence_25b580ea8d.xlsx
+++ b/state_results/Rivers/MangatainokaatusTiraumeaConfluence_25b580ea8d.xlsx
@@ -728,10 +728,10 @@
         <v>2.45</v>
       </c>
       <c r="G4" t="n">
-        <v>2.50508584827796</v>
+        <v>2.56681553476762</v>
       </c>
       <c r="H4" t="n">
-        <v>5.5</v>
+        <v>8.3257767383811</v>
       </c>
       <c r="I4" t="n">
         <v>4.8</v>
@@ -2409,13 +2409,13 @@
         <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>2.89751495120562</v>
+        <v>2.95575050449776</v>
       </c>
       <c r="H25" t="n">
-        <v>6.72</v>
+        <v>8.3257767383811</v>
       </c>
       <c r="I25" t="n">
-        <v>5.823</v>
+        <v>6.526</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -2426,7 +2426,7 @@
         <v>4.5392</v>
       </c>
       <c r="N25" t="n">
-        <v>5.30708</v>
+        <v>5.5988</v>
       </c>
       <c r="O25" t="n">
         <v>1844630.998</v>
@@ -4090,13 +4090,13 @@
         <v>3</v>
       </c>
       <c r="G46" t="n">
-        <v>2.85532665024818</v>
+        <v>2.91044244175681</v>
       </c>
       <c r="H46" t="n">
-        <v>6.72</v>
+        <v>8.3257767383811</v>
       </c>
       <c r="I46" t="n">
-        <v>5.766</v>
+        <v>6.412</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -4107,7 +4107,7 @@
         <v>4.4996</v>
       </c>
       <c r="N46" t="n">
-        <v>5.24451</v>
+        <v>5.5076</v>
       </c>
       <c r="O46" t="n">
         <v>1844630.998</v>
@@ -11057,10 +11057,10 @@
         <v>160</v>
       </c>
       <c r="G133" t="n">
-        <v>848.219148267504</v>
+        <v>867.905561366259</v>
       </c>
       <c r="H133" t="n">
-        <v>8385.08343542343</v>
+        <v>9526.89539515125</v>
       </c>
       <c r="I133" t="n">
         <v>3600</v>
@@ -11142,10 +11142,10 @@
         <v>160</v>
       </c>
       <c r="G134" t="n">
-        <v>848.219148267504</v>
+        <v>867.905561366259</v>
       </c>
       <c r="H134" t="n">
-        <v>8385.08343542343</v>
+        <v>9526.89539515125</v>
       </c>
       <c r="I134" t="n">
         <v>3600</v>
@@ -11227,10 +11227,10 @@
         <v>160</v>
       </c>
       <c r="G135" t="n">
-        <v>848.219148267504</v>
+        <v>867.905561366259</v>
       </c>
       <c r="H135" t="n">
-        <v>8385.08343542343</v>
+        <v>9526.89539515125</v>
       </c>
       <c r="I135" t="n">
         <v>3600</v>
@@ -11312,10 +11312,10 @@
         <v>160</v>
       </c>
       <c r="G136" t="n">
-        <v>848.219148267504</v>
+        <v>867.905561366259</v>
       </c>
       <c r="H136" t="n">
-        <v>8385.08343542343</v>
+        <v>9526.89539515125</v>
       </c>
       <c r="I136" t="n">
         <v>3600</v>
@@ -12738,10 +12738,10 @@
         <v>170</v>
       </c>
       <c r="G154" t="n">
-        <v>1149.14361064997</v>
+        <v>1173.8662773106</v>
       </c>
       <c r="H154" t="n">
-        <v>8385.08343542343</v>
+        <v>9526.89539515125</v>
       </c>
       <c r="I154" t="n">
         <v>7900</v>
@@ -12823,10 +12823,10 @@
         <v>170</v>
       </c>
       <c r="G155" t="n">
-        <v>1149.14361064997</v>
+        <v>1173.8662773106</v>
       </c>
       <c r="H155" t="n">
-        <v>8385.08343542343</v>
+        <v>9526.89539515125</v>
       </c>
       <c r="I155" t="n">
         <v>7900</v>
@@ -12908,10 +12908,10 @@
         <v>170</v>
       </c>
       <c r="G156" t="n">
-        <v>1149.14361064997</v>
+        <v>1173.8662773106</v>
       </c>
       <c r="H156" t="n">
-        <v>8385.08343542343</v>
+        <v>9526.89539515125</v>
       </c>
       <c r="I156" t="n">
         <v>7900</v>
@@ -12993,10 +12993,10 @@
         <v>170</v>
       </c>
       <c r="G157" t="n">
-        <v>1149.14361064997</v>
+        <v>1173.8662773106</v>
       </c>
       <c r="H157" t="n">
-        <v>8385.08343542343</v>
+        <v>9526.89539515125</v>
       </c>
       <c r="I157" t="n">
         <v>7900</v>
@@ -14419,10 +14419,10 @@
         <v>160</v>
       </c>
       <c r="G175" t="n">
-        <v>1143.19624222892</v>
+        <v>1167.91890888955</v>
       </c>
       <c r="H175" t="n">
-        <v>8385.08343542343</v>
+        <v>9526.89539515125</v>
       </c>
       <c r="I175" t="n">
         <v>7900</v>
@@ -14504,10 +14504,10 @@
         <v>160</v>
       </c>
       <c r="G176" t="n">
-        <v>1143.19624222892</v>
+        <v>1167.91890888955</v>
       </c>
       <c r="H176" t="n">
-        <v>8385.08343542343</v>
+        <v>9526.89539515125</v>
       </c>
       <c r="I176" t="n">
         <v>7900</v>
@@ -14589,10 +14589,10 @@
         <v>160</v>
       </c>
       <c r="G177" t="n">
-        <v>1143.19624222892</v>
+        <v>1167.91890888955</v>
       </c>
       <c r="H177" t="n">
-        <v>8385.08343542343</v>
+        <v>9526.89539515125</v>
       </c>
       <c r="I177" t="n">
         <v>7900</v>
@@ -14674,10 +14674,10 @@
         <v>160</v>
       </c>
       <c r="G178" t="n">
-        <v>1143.19624222892</v>
+        <v>1167.91890888955</v>
       </c>
       <c r="H178" t="n">
-        <v>8385.08343542343</v>
+        <v>9526.89539515125</v>
       </c>
       <c r="I178" t="n">
         <v>7900</v>

--- a/state_results/Rivers/MangatainokaatusTiraumeaConfluence_25b580ea8d.xlsx
+++ b/state_results/Rivers/MangatainokaatusTiraumeaConfluence_25b580ea8d.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="72">
   <si>
     <t>site name</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -584,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U190"/>
+  <dimension ref="A1:U210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,7 +672,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F2">
         <v>0.397</v>
@@ -699,16 +702,16 @@
         <v>5523563.134</v>
       </c>
       <c r="Q2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -725,7 +728,7 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F3">
         <v>21</v>
@@ -755,19 +758,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -784,22 +787,22 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F4">
         <v>2.45</v>
       </c>
       <c r="G4">
-        <v>2.55747113756939</v>
+        <v>2.55131075510365</v>
       </c>
       <c r="H4">
-        <v>7.85855687846972</v>
+        <v>7.55053775518271</v>
       </c>
       <c r="I4">
         <v>4.8</v>
       </c>
       <c r="L4">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="M4">
         <v>3.65</v>
@@ -814,19 +817,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -843,13 +846,13 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F5">
         <v>0.007</v>
       </c>
       <c r="G5">
-        <v>0.0084902524848112</v>
+        <v>0.008492190161706501</v>
       </c>
       <c r="H5">
         <v>0.043</v>
@@ -858,7 +861,7 @@
         <v>0.015</v>
       </c>
       <c r="L5">
-        <v>0.0075</v>
+        <v>0.007</v>
       </c>
       <c r="M5">
         <v>0.01081</v>
@@ -873,19 +876,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -902,13 +905,13 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F6">
         <v>0.007</v>
       </c>
       <c r="G6">
-        <v>0.0084902524848112</v>
+        <v>0.008492190161706501</v>
       </c>
       <c r="H6">
         <v>0.043</v>
@@ -917,7 +920,7 @@
         <v>0.015</v>
       </c>
       <c r="L6">
-        <v>0.0075</v>
+        <v>0.007</v>
       </c>
       <c r="M6">
         <v>0.01081</v>
@@ -932,19 +935,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -961,7 +964,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F7">
         <v>110</v>
@@ -982,7 +985,7 @@
         <v>26.3157894736842</v>
       </c>
       <c r="L7">
-        <v>93.5</v>
+        <v>133.5</v>
       </c>
       <c r="M7">
         <v>483.35</v>
@@ -997,19 +1000,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1026,7 +1029,7 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F8">
         <v>110</v>
@@ -1047,7 +1050,7 @@
         <v>26.3157894736842</v>
       </c>
       <c r="L8">
-        <v>93.5</v>
+        <v>133.5</v>
       </c>
       <c r="M8">
         <v>483.35</v>
@@ -1062,19 +1065,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1091,7 +1094,7 @@
         <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9">
         <v>110</v>
@@ -1112,7 +1115,7 @@
         <v>26.3157894736842</v>
       </c>
       <c r="L9">
-        <v>93.5</v>
+        <v>133.5</v>
       </c>
       <c r="M9">
         <v>483.35</v>
@@ -1127,19 +1130,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1156,7 +1159,7 @@
         <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10">
         <v>110</v>
@@ -1177,7 +1180,7 @@
         <v>26.3157894736842</v>
       </c>
       <c r="L10">
-        <v>93.5</v>
+        <v>133.5</v>
       </c>
       <c r="M10">
         <v>483.35</v>
@@ -1192,19 +1195,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1221,7 +1224,7 @@
         <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F11">
         <v>104</v>
@@ -1251,16 +1254,16 @@
         <v>5523563.134</v>
       </c>
       <c r="Q11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1277,13 +1280,13 @@
         <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F12">
         <v>0.00398</v>
       </c>
       <c r="G12">
-        <v>0.009660303468510101</v>
+        <v>0.0096586033615913</v>
       </c>
       <c r="H12">
         <v>0.07000000000000001</v>
@@ -1292,7 +1295,7 @@
         <v>0.036</v>
       </c>
       <c r="L12">
-        <v>0.00403</v>
+        <v>0.00305</v>
       </c>
       <c r="M12">
         <v>0.01811</v>
@@ -1307,19 +1310,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1336,13 +1339,13 @@
         <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F13">
         <v>0.00398</v>
       </c>
       <c r="G13">
-        <v>0.009660303468510101</v>
+        <v>0.0096586033615913</v>
       </c>
       <c r="H13">
         <v>0.07000000000000001</v>
@@ -1351,7 +1354,7 @@
         <v>0.036</v>
       </c>
       <c r="L13">
-        <v>0.00403</v>
+        <v>0.00305</v>
       </c>
       <c r="M13">
         <v>0.01811</v>
@@ -1366,19 +1369,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1395,7 +1398,7 @@
         <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F14">
         <v>0.84</v>
@@ -1410,7 +1413,7 @@
         <v>1.52583</v>
       </c>
       <c r="L14">
-        <v>0.53005</v>
+        <v>0.63115</v>
       </c>
       <c r="M14">
         <v>1.23572</v>
@@ -1425,19 +1428,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1454,7 +1457,7 @@
         <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F15">
         <v>0.84</v>
@@ -1469,7 +1472,7 @@
         <v>1.52583</v>
       </c>
       <c r="L15">
-        <v>0.53005</v>
+        <v>0.63115</v>
       </c>
       <c r="M15">
         <v>1.23572</v>
@@ -1484,19 +1487,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1513,7 +1516,7 @@
         <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F16">
         <v>4.655</v>
@@ -1543,16 +1546,16 @@
         <v>5523563.134</v>
       </c>
       <c r="Q16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1566,7 +1569,7 @@
         <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F17">
         <v>0.867</v>
@@ -1581,7 +1584,7 @@
         <v>1.54048</v>
       </c>
       <c r="L17">
-        <v>0.53925</v>
+        <v>0.64085</v>
       </c>
       <c r="M17">
         <v>1.26224</v>
@@ -1596,19 +1599,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1622,7 +1625,7 @@
         <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F18">
         <v>0.867</v>
@@ -1637,7 +1640,7 @@
         <v>1.54048</v>
       </c>
       <c r="L18">
-        <v>0.53925</v>
+        <v>0.64085</v>
       </c>
       <c r="M18">
         <v>1.26224</v>
@@ -1652,19 +1655,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1678,7 +1681,7 @@
         <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1693,7 +1696,7 @@
         <v>1.66825</v>
       </c>
       <c r="L19">
-        <v>0.656</v>
+        <v>0.775</v>
       </c>
       <c r="M19">
         <v>1.43081</v>
@@ -1708,19 +1711,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1734,7 +1737,7 @@
         <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1749,7 +1752,7 @@
         <v>1.66825</v>
       </c>
       <c r="L20">
-        <v>0.656</v>
+        <v>0.775</v>
       </c>
       <c r="M20">
         <v>1.43081</v>
@@ -1764,19 +1767,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1790,13 +1793,13 @@
         <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F21">
         <v>0.014</v>
       </c>
       <c r="G21">
-        <v>0.0192471556329085</v>
+        <v>0.0192493340703595</v>
       </c>
       <c r="H21">
         <v>0.061</v>
@@ -1805,7 +1808,7 @@
         <v>0.05265</v>
       </c>
       <c r="L21">
-        <v>0.0155</v>
+        <v>0.0145</v>
       </c>
       <c r="M21">
         <v>0.027</v>
@@ -1820,19 +1823,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1846,13 +1849,13 @@
         <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F22">
         <v>0.014</v>
       </c>
       <c r="G22">
-        <v>0.0192471556329085</v>
+        <v>0.0192493340703595</v>
       </c>
       <c r="H22">
         <v>0.061</v>
@@ -1861,7 +1864,7 @@
         <v>0.05265</v>
       </c>
       <c r="L22">
-        <v>0.0155</v>
+        <v>0.0145</v>
       </c>
       <c r="M22">
         <v>0.027</v>
@@ -1876,19 +1879,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1905,7 +1908,7 @@
         <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F23">
         <v>0.397</v>
@@ -1935,16 +1938,16 @@
         <v>5523563.134</v>
       </c>
       <c r="Q23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1961,7 +1964,7 @@
         <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F24">
         <v>20</v>
@@ -1976,7 +1979,7 @@
         <v>110</v>
       </c>
       <c r="L24">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="M24">
         <v>60.75</v>
@@ -1991,19 +1994,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2020,16 +2023,16 @@
         <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F25">
         <v>3</v>
       </c>
       <c r="G25">
-        <v>2.94693503544282</v>
+        <v>2.94112335387137</v>
       </c>
       <c r="H25">
-        <v>7.85855687846972</v>
+        <v>7.55053775518271</v>
       </c>
       <c r="I25">
         <v>6.526</v>
@@ -2050,19 +2053,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2079,13 +2082,13 @@
         <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F26">
         <v>0.007</v>
       </c>
       <c r="G26">
-        <v>0.008251368223150601</v>
+        <v>0.0082539637489352</v>
       </c>
       <c r="H26">
         <v>0.043</v>
@@ -2094,7 +2097,7 @@
         <v>0.015</v>
       </c>
       <c r="L26">
-        <v>0.006</v>
+        <v>0.0065</v>
       </c>
       <c r="M26">
         <v>0.0103</v>
@@ -2109,19 +2112,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2138,13 +2141,13 @@
         <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F27">
         <v>0.007</v>
       </c>
       <c r="G27">
-        <v>0.008251368223150601</v>
+        <v>0.0082539637489352</v>
       </c>
       <c r="H27">
         <v>0.043</v>
@@ -2153,7 +2156,7 @@
         <v>0.015</v>
       </c>
       <c r="L27">
-        <v>0.006</v>
+        <v>0.0065</v>
       </c>
       <c r="M27">
         <v>0.0103</v>
@@ -2168,19 +2171,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2197,7 +2200,7 @@
         <v>49</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F28">
         <v>92.5</v>
@@ -2218,7 +2221,7 @@
         <v>21.6666666666667</v>
       </c>
       <c r="L28">
-        <v>108</v>
+        <v>133.5</v>
       </c>
       <c r="M28">
         <v>412</v>
@@ -2233,19 +2236,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2262,7 +2265,7 @@
         <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F29">
         <v>92.5</v>
@@ -2283,7 +2286,7 @@
         <v>21.6666666666667</v>
       </c>
       <c r="L29">
-        <v>108</v>
+        <v>133.5</v>
       </c>
       <c r="M29">
         <v>412</v>
@@ -2298,19 +2301,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2327,7 +2330,7 @@
         <v>49</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F30">
         <v>92.5</v>
@@ -2348,7 +2351,7 @@
         <v>21.6666666666667</v>
       </c>
       <c r="L30">
-        <v>108</v>
+        <v>133.5</v>
       </c>
       <c r="M30">
         <v>412</v>
@@ -2363,19 +2366,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2392,7 +2395,7 @@
         <v>49</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F31">
         <v>92.5</v>
@@ -2413,7 +2416,7 @@
         <v>21.6666666666667</v>
       </c>
       <c r="L31">
-        <v>108</v>
+        <v>133.5</v>
       </c>
       <c r="M31">
         <v>412</v>
@@ -2428,19 +2431,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2457,7 +2460,7 @@
         <v>49</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F32">
         <v>101</v>
@@ -2487,16 +2490,16 @@
         <v>5523563.134</v>
       </c>
       <c r="Q32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2513,13 +2516,13 @@
         <v>49</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F33">
-        <v>0.00272</v>
+        <v>0.00266</v>
       </c>
       <c r="G33">
-        <v>0.0090741007368037</v>
+        <v>0.009062098885039</v>
       </c>
       <c r="H33">
         <v>0.07000000000000001</v>
@@ -2528,7 +2531,7 @@
         <v>0.03563</v>
       </c>
       <c r="L33">
-        <v>0.00234</v>
+        <v>0.00231</v>
       </c>
       <c r="M33">
         <v>0.01826</v>
@@ -2543,19 +2546,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2572,13 +2575,13 @@
         <v>49</v>
       </c>
       <c r="E34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F34">
-        <v>0.00272</v>
+        <v>0.00266</v>
       </c>
       <c r="G34">
-        <v>0.0090741007368037</v>
+        <v>0.009062098885039</v>
       </c>
       <c r="H34">
         <v>0.07000000000000001</v>
@@ -2587,7 +2590,7 @@
         <v>0.03563</v>
       </c>
       <c r="L34">
-        <v>0.00234</v>
+        <v>0.00231</v>
       </c>
       <c r="M34">
         <v>0.01826</v>
@@ -2602,19 +2605,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2631,7 +2634,7 @@
         <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F35">
         <v>0.845</v>
@@ -2646,7 +2649,7 @@
         <v>1.5768</v>
       </c>
       <c r="L35">
-        <v>0.5315</v>
+        <v>0.58265</v>
       </c>
       <c r="M35">
         <v>1.27587</v>
@@ -2661,19 +2664,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2690,7 +2693,7 @@
         <v>49</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F36">
         <v>0.845</v>
@@ -2705,7 +2708,7 @@
         <v>1.5768</v>
       </c>
       <c r="L36">
-        <v>0.5315</v>
+        <v>0.58265</v>
       </c>
       <c r="M36">
         <v>1.27587</v>
@@ -2720,19 +2723,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2749,7 +2752,7 @@
         <v>49</v>
       </c>
       <c r="E37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F37">
         <v>4.47</v>
@@ -2779,16 +2782,16 @@
         <v>5523563.134</v>
       </c>
       <c r="Q37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2802,7 +2805,7 @@
         <v>49</v>
       </c>
       <c r="E38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F38">
         <v>0.87465</v>
@@ -2817,7 +2820,7 @@
         <v>1.5972</v>
       </c>
       <c r="L38">
-        <v>0.545</v>
+        <v>0.59085</v>
       </c>
       <c r="M38">
         <v>1.29914</v>
@@ -2832,19 +2835,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2858,7 +2861,7 @@
         <v>49</v>
       </c>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F39">
         <v>0.87465</v>
@@ -2873,7 +2876,7 @@
         <v>1.5972</v>
       </c>
       <c r="L39">
-        <v>0.545</v>
+        <v>0.59085</v>
       </c>
       <c r="M39">
         <v>1.29914</v>
@@ -2888,19 +2891,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2914,7 +2917,7 @@
         <v>49</v>
       </c>
       <c r="E40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F40">
         <v>1.031</v>
@@ -2929,7 +2932,7 @@
         <v>1.685</v>
       </c>
       <c r="L40">
-        <v>0.695</v>
+        <v>0.75</v>
       </c>
       <c r="M40">
         <v>1.4303</v>
@@ -2944,19 +2947,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2970,7 +2973,7 @@
         <v>49</v>
       </c>
       <c r="E41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F41">
         <v>1.031</v>
@@ -2985,7 +2988,7 @@
         <v>1.685</v>
       </c>
       <c r="L41">
-        <v>0.695</v>
+        <v>0.75</v>
       </c>
       <c r="M41">
         <v>1.4303</v>
@@ -3000,19 +3003,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U41" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3026,13 +3029,13 @@
         <v>49</v>
       </c>
       <c r="E42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F42">
         <v>0.0145</v>
       </c>
       <c r="G42">
-        <v>0.0193514645179297</v>
+        <v>0.0193535340335082</v>
       </c>
       <c r="H42">
         <v>0.061</v>
@@ -3041,7 +3044,7 @@
         <v>0.0525</v>
       </c>
       <c r="L42">
-        <v>0.0155</v>
+        <v>0.015</v>
       </c>
       <c r="M42">
         <v>0.0279</v>
@@ -3056,19 +3059,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U42" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3082,13 +3085,13 @@
         <v>49</v>
       </c>
       <c r="E43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F43">
         <v>0.0145</v>
       </c>
       <c r="G43">
-        <v>0.0193514645179297</v>
+        <v>0.0193535340335082</v>
       </c>
       <c r="H43">
         <v>0.061</v>
@@ -3097,7 +3100,7 @@
         <v>0.0525</v>
       </c>
       <c r="L43">
-        <v>0.0155</v>
+        <v>0.015</v>
       </c>
       <c r="M43">
         <v>0.0279</v>
@@ -3112,19 +3115,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3141,7 +3144,7 @@
         <v>50</v>
       </c>
       <c r="E44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F44">
         <v>0.419</v>
@@ -3171,16 +3174,16 @@
         <v>5523563.134</v>
       </c>
       <c r="Q44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3197,7 +3200,7 @@
         <v>50</v>
       </c>
       <c r="E45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F45">
         <v>19</v>
@@ -3212,7 +3215,7 @@
         <v>94.5</v>
       </c>
       <c r="L45">
-        <v>19.75</v>
+        <v>18</v>
       </c>
       <c r="M45">
         <v>55</v>
@@ -3227,19 +3230,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3256,22 +3259,22 @@
         <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F46">
         <v>3</v>
       </c>
       <c r="G46">
-        <v>2.90209922997267</v>
+        <v>2.89659888848541</v>
       </c>
       <c r="H46">
-        <v>7.85855687846972</v>
+        <v>7.55053775518271</v>
       </c>
       <c r="I46">
         <v>6.412</v>
       </c>
       <c r="L46">
-        <v>3.0075</v>
+        <v>3</v>
       </c>
       <c r="M46">
         <v>4.4996</v>
@@ -3286,19 +3289,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3315,13 +3318,13 @@
         <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F47">
         <v>0.007</v>
       </c>
       <c r="G47">
-        <v>0.0084299678186564</v>
+        <v>0.0084316544188348</v>
       </c>
       <c r="H47">
         <v>0.043</v>
@@ -3345,19 +3348,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3374,13 +3377,13 @@
         <v>50</v>
       </c>
       <c r="E48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F48">
         <v>0.007</v>
       </c>
       <c r="G48">
-        <v>0.0084299678186564</v>
+        <v>0.0084316544188348</v>
       </c>
       <c r="H48">
         <v>0.043</v>
@@ -3404,19 +3407,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3433,7 +3436,7 @@
         <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F49">
         <v>107.5</v>
@@ -3454,7 +3457,7 @@
         <v>18.3333333333333</v>
       </c>
       <c r="L49">
-        <v>138</v>
+        <v>144.5</v>
       </c>
       <c r="M49">
         <v>341.8</v>
@@ -3469,19 +3472,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U49" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3498,7 +3501,7 @@
         <v>50</v>
       </c>
       <c r="E50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F50">
         <v>107.5</v>
@@ -3519,7 +3522,7 @@
         <v>18.3333333333333</v>
       </c>
       <c r="L50">
-        <v>138</v>
+        <v>144.5</v>
       </c>
       <c r="M50">
         <v>341.8</v>
@@ -3534,19 +3537,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3563,7 +3566,7 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F51">
         <v>107.5</v>
@@ -3584,7 +3587,7 @@
         <v>18.3333333333333</v>
       </c>
       <c r="L51">
-        <v>138</v>
+        <v>144.5</v>
       </c>
       <c r="M51">
         <v>341.8</v>
@@ -3599,19 +3602,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3628,7 +3631,7 @@
         <v>50</v>
       </c>
       <c r="E52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F52">
         <v>107.5</v>
@@ -3649,7 +3652,7 @@
         <v>18.3333333333333</v>
       </c>
       <c r="L52">
-        <v>138</v>
+        <v>144.5</v>
       </c>
       <c r="M52">
         <v>341.8</v>
@@ -3664,19 +3667,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3693,7 +3696,7 @@
         <v>50</v>
       </c>
       <c r="E53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F53">
         <v>101</v>
@@ -3723,16 +3726,16 @@
         <v>5523563.134</v>
       </c>
       <c r="Q53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3749,13 +3752,13 @@
         <v>50</v>
       </c>
       <c r="E54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F54">
-        <v>0.00139</v>
+        <v>0.00136</v>
       </c>
       <c r="G54">
-        <v>0.0049985323150384</v>
+        <v>0.0049808489182887</v>
       </c>
       <c r="H54">
         <v>0.0364651566433847</v>
@@ -3764,10 +3767,10 @@
         <v>0.02436</v>
       </c>
       <c r="L54">
-        <v>0.00146</v>
+        <v>0.00141</v>
       </c>
       <c r="M54">
-        <v>0.01028</v>
+        <v>0.01007</v>
       </c>
       <c r="N54">
         <v>0.0183</v>
@@ -3779,19 +3782,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3808,13 +3811,13 @@
         <v>50</v>
       </c>
       <c r="E55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F55">
-        <v>0.00139</v>
+        <v>0.00136</v>
       </c>
       <c r="G55">
-        <v>0.0049985323150384</v>
+        <v>0.0049808489182887</v>
       </c>
       <c r="H55">
         <v>0.0364651566433847</v>
@@ -3823,10 +3826,10 @@
         <v>0.02436</v>
       </c>
       <c r="L55">
-        <v>0.00146</v>
+        <v>0.00141</v>
       </c>
       <c r="M55">
-        <v>0.01028</v>
+        <v>0.01007</v>
       </c>
       <c r="N55">
         <v>0.0183</v>
@@ -3838,19 +3841,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3867,13 +3870,13 @@
         <v>50</v>
       </c>
       <c r="E56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F56">
         <v>0.8383</v>
       </c>
       <c r="G56">
-        <v>0.84156891049446</v>
+        <v>0.841551433573717</v>
       </c>
       <c r="H56">
         <v>1.76</v>
@@ -3882,7 +3885,7 @@
         <v>1.5768</v>
       </c>
       <c r="L56">
-        <v>0.4855</v>
+        <v>0.50905</v>
       </c>
       <c r="M56">
         <v>1.294</v>
@@ -3897,19 +3900,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U56" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3926,13 +3929,13 @@
         <v>50</v>
       </c>
       <c r="E57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F57">
         <v>0.8383</v>
       </c>
       <c r="G57">
-        <v>0.84156891049446</v>
+        <v>0.841551433573717</v>
       </c>
       <c r="H57">
         <v>1.76</v>
@@ -3941,7 +3944,7 @@
         <v>1.5768</v>
       </c>
       <c r="L57">
-        <v>0.4855</v>
+        <v>0.50905</v>
       </c>
       <c r="M57">
         <v>1.294</v>
@@ -3956,19 +3959,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U57" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -3985,7 +3988,7 @@
         <v>50</v>
       </c>
       <c r="E58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F58">
         <v>4.655</v>
@@ -4015,16 +4018,16 @@
         <v>5523563.134</v>
       </c>
       <c r="Q58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4038,7 +4041,7 @@
         <v>50</v>
       </c>
       <c r="E59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F59">
         <v>0.87065</v>
@@ -4053,7 +4056,7 @@
         <v>1.5881</v>
       </c>
       <c r="L59">
-        <v>0.495</v>
+        <v>0.51425</v>
       </c>
       <c r="M59">
         <v>1.306</v>
@@ -4068,19 +4071,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U59" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4094,7 +4097,7 @@
         <v>50</v>
       </c>
       <c r="E60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F60">
         <v>0.87065</v>
@@ -4109,7 +4112,7 @@
         <v>1.5881</v>
       </c>
       <c r="L60">
-        <v>0.495</v>
+        <v>0.51425</v>
       </c>
       <c r="M60">
         <v>1.306</v>
@@ -4124,19 +4127,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U60" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4150,7 +4153,7 @@
         <v>50</v>
       </c>
       <c r="E61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F61">
         <v>1.046</v>
@@ -4165,7 +4168,7 @@
         <v>1.6675</v>
       </c>
       <c r="L61">
-        <v>0.663</v>
+        <v>0.695</v>
       </c>
       <c r="M61">
         <v>1.4346</v>
@@ -4180,19 +4183,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U61" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4206,7 +4209,7 @@
         <v>50</v>
       </c>
       <c r="E62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F62">
         <v>1.046</v>
@@ -4221,7 +4224,7 @@
         <v>1.6675</v>
       </c>
       <c r="L62">
-        <v>0.663</v>
+        <v>0.695</v>
       </c>
       <c r="M62">
         <v>1.4346</v>
@@ -4236,19 +4239,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U62" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4262,7 +4265,7 @@
         <v>50</v>
       </c>
       <c r="E63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F63">
         <v>0.015</v>
@@ -4292,19 +4295,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U63" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4318,7 +4321,7 @@
         <v>50</v>
       </c>
       <c r="E64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F64">
         <v>0.015</v>
@@ -4348,19 +4351,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U64" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4377,7 +4380,7 @@
         <v>51</v>
       </c>
       <c r="E65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F65">
         <v>0.419</v>
@@ -4407,16 +4410,16 @@
         <v>5523563.134</v>
       </c>
       <c r="Q65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S65" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4433,7 +4436,7 @@
         <v>51</v>
       </c>
       <c r="E66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F66">
         <v>17.5</v>
@@ -4448,7 +4451,7 @@
         <v>92.5</v>
       </c>
       <c r="L66">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="M66">
         <v>55.85</v>
@@ -4463,19 +4466,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S66" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T66" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4492,7 +4495,7 @@
         <v>51</v>
       </c>
       <c r="E67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F67">
         <v>2.585</v>
@@ -4507,7 +4510,7 @@
         <v>5.766</v>
       </c>
       <c r="L67">
-        <v>2.985</v>
+        <v>2.45</v>
       </c>
       <c r="M67">
         <v>4.1588</v>
@@ -4522,19 +4525,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S67" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T67" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4551,13 +4554,13 @@
         <v>51</v>
       </c>
       <c r="E68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F68">
         <v>0.007</v>
       </c>
       <c r="G68">
-        <v>0.008603005471557301</v>
+        <v>0.0086055406518518</v>
       </c>
       <c r="H68">
         <v>0.043</v>
@@ -4581,19 +4584,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S68" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T68" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U68" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4610,13 +4613,13 @@
         <v>51</v>
       </c>
       <c r="E69" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F69">
         <v>0.007</v>
       </c>
       <c r="G69">
-        <v>0.008603005471557301</v>
+        <v>0.0086055406518518</v>
       </c>
       <c r="H69">
         <v>0.043</v>
@@ -4640,19 +4643,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U69" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4669,7 +4672,7 @@
         <v>51</v>
       </c>
       <c r="E70" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F70">
         <v>122</v>
@@ -4705,19 +4708,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S70" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T70" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U70" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4734,7 +4737,7 @@
         <v>51</v>
       </c>
       <c r="E71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F71">
         <v>122</v>
@@ -4770,19 +4773,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q71" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R71" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S71" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T71" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U71" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4799,7 +4802,7 @@
         <v>51</v>
       </c>
       <c r="E72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F72">
         <v>122</v>
@@ -4835,19 +4838,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R72" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S72" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T72" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U72" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4864,7 +4867,7 @@
         <v>51</v>
       </c>
       <c r="E73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F73">
         <v>122</v>
@@ -4900,19 +4903,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R73" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S73" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T73" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U73" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4929,7 +4932,7 @@
         <v>51</v>
       </c>
       <c r="E74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F74">
         <v>93</v>
@@ -4959,16 +4962,16 @@
         <v>5523563.134</v>
       </c>
       <c r="Q74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R74" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S74" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T74" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -4985,13 +4988,13 @@
         <v>51</v>
       </c>
       <c r="E75" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F75">
-        <v>0.00158</v>
+        <v>0.00155</v>
       </c>
       <c r="G75">
-        <v>0.0040076830034551</v>
+        <v>0.003980484252841</v>
       </c>
       <c r="H75">
         <v>0.034581543466489</v>
@@ -5000,10 +5003,10 @@
         <v>0.0172</v>
       </c>
       <c r="L75">
-        <v>0.00158</v>
+        <v>0.00155</v>
       </c>
       <c r="M75">
-        <v>0.00513</v>
+        <v>0.00502</v>
       </c>
       <c r="N75">
         <v>0.01361</v>
@@ -5015,19 +5018,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q75" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R75" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S75" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T75" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U75" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5044,13 +5047,13 @@
         <v>51</v>
       </c>
       <c r="E76" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F76">
-        <v>0.00158</v>
+        <v>0.00155</v>
       </c>
       <c r="G76">
-        <v>0.0040076830034551</v>
+        <v>0.003980484252841</v>
       </c>
       <c r="H76">
         <v>0.034581543466489</v>
@@ -5059,10 +5062,10 @@
         <v>0.0172</v>
       </c>
       <c r="L76">
-        <v>0.00158</v>
+        <v>0.00155</v>
       </c>
       <c r="M76">
-        <v>0.00513</v>
+        <v>0.00502</v>
       </c>
       <c r="N76">
         <v>0.01361</v>
@@ -5074,19 +5077,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q76" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R76" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S76" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T76" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U76" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5103,13 +5106,13 @@
         <v>51</v>
       </c>
       <c r="E77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F77">
         <v>0.8478</v>
       </c>
       <c r="G77">
-        <v>0.8447589104944599</v>
+        <v>0.844741433573717</v>
       </c>
       <c r="H77">
         <v>1.76</v>
@@ -5118,7 +5121,7 @@
         <v>1.5768</v>
       </c>
       <c r="L77">
-        <v>0.4855</v>
+        <v>0.50905</v>
       </c>
       <c r="M77">
         <v>1.294</v>
@@ -5133,19 +5136,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q77" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R77" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S77" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T77" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U77" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5162,13 +5165,13 @@
         <v>51</v>
       </c>
       <c r="E78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F78">
         <v>0.8478</v>
       </c>
       <c r="G78">
-        <v>0.8447589104944599</v>
+        <v>0.844741433573717</v>
       </c>
       <c r="H78">
         <v>1.76</v>
@@ -5177,7 +5180,7 @@
         <v>1.5768</v>
       </c>
       <c r="L78">
-        <v>0.4855</v>
+        <v>0.50905</v>
       </c>
       <c r="M78">
         <v>1.294</v>
@@ -5192,19 +5195,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R78" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S78" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T78" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U78" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5221,7 +5224,7 @@
         <v>51</v>
       </c>
       <c r="E79" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F79">
         <v>4.47</v>
@@ -5251,16 +5254,16 @@
         <v>5523563.134</v>
       </c>
       <c r="Q79" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R79" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S79" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5274,7 +5277,7 @@
         <v>51</v>
       </c>
       <c r="E80" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F80">
         <v>0.87365</v>
@@ -5289,7 +5292,7 @@
         <v>1.5881</v>
       </c>
       <c r="L80">
-        <v>0.495</v>
+        <v>0.51425</v>
       </c>
       <c r="M80">
         <v>1.306</v>
@@ -5304,19 +5307,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q80" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R80" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S80" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T80" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U80" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5330,7 +5333,7 @@
         <v>51</v>
       </c>
       <c r="E81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F81">
         <v>0.87365</v>
@@ -5345,7 +5348,7 @@
         <v>1.5881</v>
       </c>
       <c r="L81">
-        <v>0.495</v>
+        <v>0.51425</v>
       </c>
       <c r="M81">
         <v>1.306</v>
@@ -5360,19 +5363,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q81" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R81" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S81" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T81" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U81" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5386,7 +5389,7 @@
         <v>51</v>
       </c>
       <c r="E82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F82">
         <v>1.02</v>
@@ -5401,7 +5404,7 @@
         <v>1.6675</v>
       </c>
       <c r="L82">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
       <c r="M82">
         <v>1.4346</v>
@@ -5416,19 +5419,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R82" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S82" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T82" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U82" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5442,7 +5445,7 @@
         <v>51</v>
       </c>
       <c r="E83" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F83">
         <v>1.02</v>
@@ -5457,7 +5460,7 @@
         <v>1.6675</v>
       </c>
       <c r="L83">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
       <c r="M83">
         <v>1.4346</v>
@@ -5472,19 +5475,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R83" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S83" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T83" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U83" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5498,7 +5501,7 @@
         <v>51</v>
       </c>
       <c r="E84" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F84">
         <v>0.015</v>
@@ -5528,19 +5531,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q84" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R84" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S84" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T84" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U84" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5554,7 +5557,7 @@
         <v>51</v>
       </c>
       <c r="E85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F85">
         <v>0.015</v>
@@ -5584,19 +5587,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R85" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S85" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T85" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U85" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5613,7 +5616,7 @@
         <v>52</v>
       </c>
       <c r="E86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F86">
         <v>0.356</v>
@@ -5628,7 +5631,7 @@
         <v>0.462</v>
       </c>
       <c r="L86">
-        <v>0.3765</v>
+        <v>0.356</v>
       </c>
       <c r="M86">
         <v>0.44695</v>
@@ -5643,16 +5646,16 @@
         <v>5523563.134</v>
       </c>
       <c r="Q86" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R86" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S86" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T86" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -5669,7 +5672,7 @@
         <v>52</v>
       </c>
       <c r="E87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F87">
         <v>19.5</v>
@@ -5684,7 +5687,7 @@
         <v>97.5</v>
       </c>
       <c r="L87">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="M87">
         <v>65.09999999999999</v>
@@ -5699,19 +5702,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S87" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U87" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -5728,7 +5731,7 @@
         <v>52</v>
       </c>
       <c r="E88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F88">
         <v>2.935</v>
@@ -5758,19 +5761,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q88" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S88" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T88" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U88" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -5787,13 +5790,13 @@
         <v>52</v>
       </c>
       <c r="E89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F89">
         <v>0.007</v>
       </c>
       <c r="G89">
-        <v>0.0076260182978601</v>
+        <v>0.0076309682369726</v>
       </c>
       <c r="H89">
         <v>0.039</v>
@@ -5802,7 +5805,7 @@
         <v>0.01355</v>
       </c>
       <c r="L89">
-        <v>0.0055</v>
+        <v>0.0065</v>
       </c>
       <c r="M89">
         <v>0.01</v>
@@ -5817,19 +5820,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q89" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R89" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S89" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T89" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U89" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -5846,13 +5849,13 @@
         <v>52</v>
       </c>
       <c r="E90" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F90">
         <v>0.007</v>
       </c>
       <c r="G90">
-        <v>0.0076260182978601</v>
+        <v>0.0076309682369726</v>
       </c>
       <c r="H90">
         <v>0.039</v>
@@ -5861,7 +5864,7 @@
         <v>0.01355</v>
       </c>
       <c r="L90">
-        <v>0.0055</v>
+        <v>0.0065</v>
       </c>
       <c r="M90">
         <v>0.01</v>
@@ -5876,19 +5879,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R90" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T90" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U90" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -5905,7 +5908,7 @@
         <v>52</v>
       </c>
       <c r="E91" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F91">
         <v>130</v>
@@ -5926,7 +5929,7 @@
         <v>30.5084745762712</v>
       </c>
       <c r="L91">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M91">
         <v>609.62</v>
@@ -5941,19 +5944,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q91" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R91" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S91" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T91" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U91" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -5970,7 +5973,7 @@
         <v>52</v>
       </c>
       <c r="E92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F92">
         <v>130</v>
@@ -5991,7 +5994,7 @@
         <v>30.5084745762712</v>
       </c>
       <c r="L92">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M92">
         <v>609.62</v>
@@ -6006,19 +6009,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q92" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R92" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S92" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T92" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U92" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6035,7 +6038,7 @@
         <v>52</v>
       </c>
       <c r="E93" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F93">
         <v>130</v>
@@ -6056,7 +6059,7 @@
         <v>30.5084745762712</v>
       </c>
       <c r="L93">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M93">
         <v>609.62</v>
@@ -6071,19 +6074,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q93" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R93" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S93" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T93" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U93" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6100,7 +6103,7 @@
         <v>52</v>
       </c>
       <c r="E94" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F94">
         <v>130</v>
@@ -6121,7 +6124,7 @@
         <v>30.5084745762712</v>
       </c>
       <c r="L94">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M94">
         <v>609.62</v>
@@ -6136,19 +6139,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R94" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S94" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T94" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U94" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6159,13 +6162,13 @@
         <v>31</v>
       </c>
       <c r="C95" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D95" t="s">
         <v>52</v>
       </c>
       <c r="E95" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F95">
         <v>89.09</v>
@@ -6180,7 +6183,7 @@
         <v>101</v>
       </c>
       <c r="L95">
-        <v>91.045</v>
+        <v>89.09</v>
       </c>
       <c r="M95">
         <v>98.2</v>
@@ -6195,16 +6198,16 @@
         <v>5523563.134</v>
       </c>
       <c r="Q95" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R95" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S95" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T95" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6221,13 +6224,13 @@
         <v>52</v>
       </c>
       <c r="E96" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F96">
-        <v>0.00189</v>
+        <v>0.00185</v>
       </c>
       <c r="G96">
-        <v>0.0056102614337861</v>
+        <v>0.0055649288685211</v>
       </c>
       <c r="H96">
         <v>0.1</v>
@@ -6236,13 +6239,13 @@
         <v>0.01769</v>
       </c>
       <c r="L96">
-        <v>0.00201</v>
+        <v>0.00232</v>
       </c>
       <c r="M96">
-        <v>0.00741</v>
+        <v>0.00731</v>
       </c>
       <c r="N96">
-        <v>0.01116</v>
+        <v>0.01098</v>
       </c>
       <c r="O96">
         <v>1844630.998</v>
@@ -6251,19 +6254,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q96" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S96" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T96" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U96" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6280,13 +6283,13 @@
         <v>52</v>
       </c>
       <c r="E97" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F97">
-        <v>0.00189</v>
+        <v>0.00185</v>
       </c>
       <c r="G97">
-        <v>0.0056102614337861</v>
+        <v>0.0055649288685211</v>
       </c>
       <c r="H97">
         <v>0.1</v>
@@ -6295,13 +6298,13 @@
         <v>0.01769</v>
       </c>
       <c r="L97">
-        <v>0.00201</v>
+        <v>0.00232</v>
       </c>
       <c r="M97">
-        <v>0.00741</v>
+        <v>0.00731</v>
       </c>
       <c r="N97">
-        <v>0.01116</v>
+        <v>0.01098</v>
       </c>
       <c r="O97">
         <v>1844630.998</v>
@@ -6310,19 +6313,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q97" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R97" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S97" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T97" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U97" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6339,13 +6342,13 @@
         <v>52</v>
       </c>
       <c r="E98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F98">
         <v>0.8179999999999999</v>
       </c>
       <c r="G98">
-        <v>0.840778553045213</v>
+        <v>0.840760779905475</v>
       </c>
       <c r="H98">
         <v>1.76</v>
@@ -6354,7 +6357,7 @@
         <v>1.54473</v>
       </c>
       <c r="L98">
-        <v>0.4855</v>
+        <v>0.5105</v>
       </c>
       <c r="M98">
         <v>1.2935</v>
@@ -6369,19 +6372,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q98" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R98" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S98" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T98" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U98" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -6398,13 +6401,13 @@
         <v>52</v>
       </c>
       <c r="E99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F99">
         <v>0.8179999999999999</v>
       </c>
       <c r="G99">
-        <v>0.840778553045213</v>
+        <v>0.840760779905475</v>
       </c>
       <c r="H99">
         <v>1.76</v>
@@ -6413,7 +6416,7 @@
         <v>1.54473</v>
       </c>
       <c r="L99">
-        <v>0.4855</v>
+        <v>0.5105</v>
       </c>
       <c r="M99">
         <v>1.2935</v>
@@ -6428,19 +6431,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R99" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S99" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T99" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U99" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6457,7 +6460,7 @@
         <v>52</v>
       </c>
       <c r="E100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F100">
         <v>4.42</v>
@@ -6472,7 +6475,7 @@
         <v>6.55</v>
       </c>
       <c r="L100">
-        <v>4.25</v>
+        <v>4.42</v>
       </c>
       <c r="M100">
         <v>5.822</v>
@@ -6487,16 +6490,16 @@
         <v>5523563.134</v>
       </c>
       <c r="Q100" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R100" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S100" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T100" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -6510,7 +6513,7 @@
         <v>52</v>
       </c>
       <c r="E101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F101">
         <v>0.843</v>
@@ -6525,7 +6528,7 @@
         <v>1.561</v>
       </c>
       <c r="L101">
-        <v>0.495</v>
+        <v>0.52</v>
       </c>
       <c r="M101">
         <v>1.3085</v>
@@ -6540,19 +6543,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R101" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S101" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T101" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U101" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -6566,7 +6569,7 @@
         <v>52</v>
       </c>
       <c r="E102" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F102">
         <v>0.843</v>
@@ -6581,7 +6584,7 @@
         <v>1.561</v>
       </c>
       <c r="L102">
-        <v>0.495</v>
+        <v>0.52</v>
       </c>
       <c r="M102">
         <v>1.3085</v>
@@ -6596,19 +6599,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q102" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R102" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S102" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T102" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U102" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -6622,7 +6625,7 @@
         <v>52</v>
       </c>
       <c r="E103" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F103">
         <v>1.03</v>
@@ -6637,7 +6640,7 @@
         <v>1.60875</v>
       </c>
       <c r="L103">
-        <v>0.68</v>
+        <v>0.735</v>
       </c>
       <c r="M103">
         <v>1.43664</v>
@@ -6652,19 +6655,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q103" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R103" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S103" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T103" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U103" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -6678,7 +6681,7 @@
         <v>52</v>
       </c>
       <c r="E104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F104">
         <v>1.03</v>
@@ -6693,7 +6696,7 @@
         <v>1.60875</v>
       </c>
       <c r="L104">
-        <v>0.68</v>
+        <v>0.735</v>
       </c>
       <c r="M104">
         <v>1.43664</v>
@@ -6708,19 +6711,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q104" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R104" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S104" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T104" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U104" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -6734,7 +6737,7 @@
         <v>52</v>
       </c>
       <c r="E105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F105">
         <v>0.015</v>
@@ -6749,7 +6752,7 @@
         <v>0.07255</v>
       </c>
       <c r="L105">
-        <v>0.0155</v>
+        <v>0.016</v>
       </c>
       <c r="M105">
         <v>0.02629</v>
@@ -6764,19 +6767,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q105" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R105" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S105" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T105" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U105" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -6790,7 +6793,7 @@
         <v>52</v>
       </c>
       <c r="E106" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F106">
         <v>0.015</v>
@@ -6805,7 +6808,7 @@
         <v>0.07255</v>
       </c>
       <c r="L106">
-        <v>0.0155</v>
+        <v>0.016</v>
       </c>
       <c r="M106">
         <v>0.02629</v>
@@ -6820,19 +6823,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q106" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R106" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S106" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T106" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U106" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -6849,7 +6852,7 @@
         <v>53</v>
       </c>
       <c r="E107" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F107">
         <v>0.356</v>
@@ -6864,7 +6867,7 @@
         <v>0.462</v>
       </c>
       <c r="L107">
-        <v>0.346</v>
+        <v>0.356</v>
       </c>
       <c r="M107">
         <v>0.44695</v>
@@ -6879,16 +6882,16 @@
         <v>5523563.134</v>
       </c>
       <c r="Q107" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R107" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T107" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -6905,7 +6908,7 @@
         <v>53</v>
       </c>
       <c r="E108" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F108">
         <v>29</v>
@@ -6920,7 +6923,7 @@
         <v>101.75</v>
       </c>
       <c r="L108">
-        <v>24.25</v>
+        <v>18.5</v>
       </c>
       <c r="M108">
         <v>70</v>
@@ -6935,19 +6938,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q108" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R108" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S108" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T108" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U108" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -6964,7 +6967,7 @@
         <v>53</v>
       </c>
       <c r="E109" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F109">
         <v>2.3</v>
@@ -6979,7 +6982,7 @@
         <v>5.8637</v>
       </c>
       <c r="L109">
-        <v>2.985</v>
+        <v>2.36</v>
       </c>
       <c r="M109">
         <v>4</v>
@@ -6994,19 +6997,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q109" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R109" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S109" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T109" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U109" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -7023,13 +7026,13 @@
         <v>53</v>
       </c>
       <c r="E110" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F110">
         <v>0.006</v>
       </c>
       <c r="G110">
-        <v>0.0064191747811515</v>
+        <v>0.006423872522503</v>
       </c>
       <c r="H110">
         <v>0.014</v>
@@ -7038,7 +7041,7 @@
         <v>0.0126</v>
       </c>
       <c r="L110">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="M110">
         <v>0.008999999999999999</v>
@@ -7053,19 +7056,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q110" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R110" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S110" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T110" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U110" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -7082,13 +7085,13 @@
         <v>53</v>
       </c>
       <c r="E111" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F111">
         <v>0.006</v>
       </c>
       <c r="G111">
-        <v>0.0064191747811515</v>
+        <v>0.006423872522503</v>
       </c>
       <c r="H111">
         <v>0.014</v>
@@ -7097,7 +7100,7 @@
         <v>0.0126</v>
       </c>
       <c r="L111">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="M111">
         <v>0.008999999999999999</v>
@@ -7112,19 +7115,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q111" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R111" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S111" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T111" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U111" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7141,7 +7144,7 @@
         <v>53</v>
       </c>
       <c r="E112" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F112">
         <v>135</v>
@@ -7162,7 +7165,7 @@
         <v>29.3103448275862</v>
       </c>
       <c r="L112">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="M112">
         <v>759.2</v>
@@ -7177,19 +7180,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q112" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R112" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S112" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T112" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U112" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -7206,7 +7209,7 @@
         <v>53</v>
       </c>
       <c r="E113" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F113">
         <v>135</v>
@@ -7227,7 +7230,7 @@
         <v>29.3103448275862</v>
       </c>
       <c r="L113">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="M113">
         <v>759.2</v>
@@ -7242,19 +7245,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q113" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R113" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S113" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T113" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U113" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -7271,7 +7274,7 @@
         <v>53</v>
       </c>
       <c r="E114" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F114">
         <v>135</v>
@@ -7292,7 +7295,7 @@
         <v>29.3103448275862</v>
       </c>
       <c r="L114">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="M114">
         <v>759.2</v>
@@ -7307,19 +7310,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q114" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R114" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S114" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T114" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U114" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -7336,7 +7339,7 @@
         <v>53</v>
       </c>
       <c r="E115" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F115">
         <v>135</v>
@@ -7357,7 +7360,7 @@
         <v>29.3103448275862</v>
       </c>
       <c r="L115">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="M115">
         <v>759.2</v>
@@ -7372,19 +7375,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q115" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R115" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S115" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T115" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U115" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -7401,7 +7404,7 @@
         <v>53</v>
       </c>
       <c r="E116" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F116">
         <v>88</v>
@@ -7416,7 +7419,7 @@
         <v>101</v>
       </c>
       <c r="L116">
-        <v>88.545</v>
+        <v>88</v>
       </c>
       <c r="M116">
         <v>96.83150000000001</v>
@@ -7431,16 +7434,16 @@
         <v>5523563.134</v>
       </c>
       <c r="Q116" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R116" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S116" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T116" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -7457,13 +7460,13 @@
         <v>53</v>
       </c>
       <c r="E117" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F117">
-        <v>0.00288</v>
+        <v>0.00287</v>
       </c>
       <c r="G117">
-        <v>0.0068063128234476</v>
+        <v>0.0067597755366394</v>
       </c>
       <c r="H117">
         <v>0.1</v>
@@ -7472,10 +7475,10 @@
         <v>0.01847</v>
       </c>
       <c r="L117">
-        <v>0.00553</v>
+        <v>0.00339</v>
       </c>
       <c r="M117">
-        <v>0.009849999999999999</v>
+        <v>0.00975</v>
       </c>
       <c r="N117">
         <v>0.01248</v>
@@ -7487,19 +7490,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R117" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S117" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T117" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U117" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -7516,13 +7519,13 @@
         <v>53</v>
       </c>
       <c r="E118" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F118">
-        <v>0.00288</v>
+        <v>0.00287</v>
       </c>
       <c r="G118">
-        <v>0.0068063128234476</v>
+        <v>0.0067597755366394</v>
       </c>
       <c r="H118">
         <v>0.1</v>
@@ -7531,10 +7534,10 @@
         <v>0.01847</v>
       </c>
       <c r="L118">
-        <v>0.00553</v>
+        <v>0.00339</v>
       </c>
       <c r="M118">
-        <v>0.009849999999999999</v>
+        <v>0.00975</v>
       </c>
       <c r="N118">
         <v>0.01248</v>
@@ -7546,19 +7549,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q118" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S118" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T118" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U118" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -7575,13 +7578,13 @@
         <v>53</v>
       </c>
       <c r="E119" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F119">
         <v>0.729</v>
       </c>
       <c r="G119">
-        <v>0.791829907408062</v>
+        <v>0.791811827834879</v>
       </c>
       <c r="H119">
         <v>1.76</v>
@@ -7590,7 +7593,7 @@
         <v>1.476</v>
       </c>
       <c r="L119">
-        <v>0.4915</v>
+        <v>0.492</v>
       </c>
       <c r="M119">
         <v>1.2328</v>
@@ -7605,19 +7608,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q119" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R119" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S119" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T119" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U119" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -7634,13 +7637,13 @@
         <v>53</v>
       </c>
       <c r="E120" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F120">
         <v>0.729</v>
       </c>
       <c r="G120">
-        <v>0.791829907408062</v>
+        <v>0.791811827834879</v>
       </c>
       <c r="H120">
         <v>1.76</v>
@@ -7649,7 +7652,7 @@
         <v>1.476</v>
       </c>
       <c r="L120">
-        <v>0.4915</v>
+        <v>0.492</v>
       </c>
       <c r="M120">
         <v>1.2328</v>
@@ -7664,19 +7667,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q120" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R120" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S120" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T120" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U120" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -7687,13 +7690,13 @@
         <v>36</v>
       </c>
       <c r="C121" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D121" t="s">
         <v>53</v>
       </c>
       <c r="E121" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F121">
         <v>4.47</v>
@@ -7708,7 +7711,7 @@
         <v>6.55</v>
       </c>
       <c r="L121">
-        <v>4.8645</v>
+        <v>4.47</v>
       </c>
       <c r="M121">
         <v>6.09815</v>
@@ -7723,16 +7726,16 @@
         <v>5523563.134</v>
       </c>
       <c r="Q121" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R121" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S121" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T121" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -7746,7 +7749,7 @@
         <v>53</v>
       </c>
       <c r="E122" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F122">
         <v>0.755</v>
@@ -7761,7 +7764,7 @@
         <v>1.491</v>
       </c>
       <c r="L122">
-        <v>0.498</v>
+        <v>0.501</v>
       </c>
       <c r="M122">
         <v>1.241</v>
@@ -7776,19 +7779,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q122" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R122" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S122" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T122" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U122" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -7802,7 +7805,7 @@
         <v>53</v>
       </c>
       <c r="E123" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F123">
         <v>0.755</v>
@@ -7817,7 +7820,7 @@
         <v>1.491</v>
       </c>
       <c r="L123">
-        <v>0.498</v>
+        <v>0.501</v>
       </c>
       <c r="M123">
         <v>1.241</v>
@@ -7832,19 +7835,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q123" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R123" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S123" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T123" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U123" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -7858,7 +7861,7 @@
         <v>53</v>
       </c>
       <c r="E124" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F124">
         <v>0.975</v>
@@ -7873,7 +7876,7 @@
         <v>1.54</v>
       </c>
       <c r="L124">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="M124">
         <v>1.3928</v>
@@ -7888,19 +7891,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R124" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S124" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T124" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U124" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="125" spans="1:21">
@@ -7914,7 +7917,7 @@
         <v>53</v>
       </c>
       <c r="E125" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F125">
         <v>0.975</v>
@@ -7929,7 +7932,7 @@
         <v>1.54</v>
       </c>
       <c r="L125">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="M125">
         <v>1.3928</v>
@@ -7944,19 +7947,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q125" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R125" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S125" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T125" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U125" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="126" spans="1:21">
@@ -7970,7 +7973,7 @@
         <v>53</v>
       </c>
       <c r="E126" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F126">
         <v>0.015</v>
@@ -7985,7 +7988,7 @@
         <v>0.0856</v>
       </c>
       <c r="L126">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="M126">
         <v>0.02964</v>
@@ -8000,19 +8003,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q126" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R126" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S126" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T126" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U126" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="127" spans="1:21">
@@ -8026,7 +8029,7 @@
         <v>53</v>
       </c>
       <c r="E127" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F127">
         <v>0.015</v>
@@ -8041,7 +8044,7 @@
         <v>0.0856</v>
       </c>
       <c r="L127">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="M127">
         <v>0.02964</v>
@@ -8056,19 +8059,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q127" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R127" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S127" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T127" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U127" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="128" spans="1:21">
@@ -8085,7 +8088,7 @@
         <v>54</v>
       </c>
       <c r="E128" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F128">
         <v>0.356</v>
@@ -8100,7 +8103,7 @@
         <v>0.419</v>
       </c>
       <c r="L128">
-        <v>0.3415</v>
+        <v>0.356</v>
       </c>
       <c r="M128">
         <v>0.41585</v>
@@ -8115,16 +8118,16 @@
         <v>5523563.134</v>
       </c>
       <c r="Q128" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R128" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S128" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T128" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="129" spans="1:21">
@@ -8141,7 +8144,7 @@
         <v>54</v>
       </c>
       <c r="E129" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F129">
         <v>33</v>
@@ -8156,7 +8159,7 @@
         <v>127</v>
       </c>
       <c r="L129">
-        <v>29</v>
+        <v>18.5</v>
       </c>
       <c r="M129">
         <v>81.8</v>
@@ -8171,19 +8174,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q129" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R129" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T129" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U129" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="130" spans="1:21">
@@ -8200,7 +8203,7 @@
         <v>54</v>
       </c>
       <c r="E130" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F130">
         <v>1.86</v>
@@ -8215,7 +8218,7 @@
         <v>4.279</v>
       </c>
       <c r="L130">
-        <v>2.27</v>
+        <v>1.9</v>
       </c>
       <c r="M130">
         <v>3.5352</v>
@@ -8230,19 +8233,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q130" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R130" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S130" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T130" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U130" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -8259,13 +8262,13 @@
         <v>54</v>
       </c>
       <c r="E131" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F131">
         <v>0.006</v>
       </c>
       <c r="G131">
-        <v>0.0064931905339948</v>
+        <v>0.0064968095770495</v>
       </c>
       <c r="H131">
         <v>0.016</v>
@@ -8274,7 +8277,7 @@
         <v>0.013</v>
       </c>
       <c r="L131">
-        <v>0.0055</v>
+        <v>0.006</v>
       </c>
       <c r="M131">
         <v>0.01</v>
@@ -8289,19 +8292,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q131" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R131" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S131" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T131" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U131" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="132" spans="1:21">
@@ -8318,13 +8321,13 @@
         <v>54</v>
       </c>
       <c r="E132" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F132">
         <v>0.006</v>
       </c>
       <c r="G132">
-        <v>0.0064931905339948</v>
+        <v>0.0064968095770495</v>
       </c>
       <c r="H132">
         <v>0.016</v>
@@ -8333,7 +8336,7 @@
         <v>0.013</v>
       </c>
       <c r="L132">
-        <v>0.0055</v>
+        <v>0.006</v>
       </c>
       <c r="M132">
         <v>0.01</v>
@@ -8348,19 +8351,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q132" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R132" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S132" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T132" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U132" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="133" spans="1:21">
@@ -8377,16 +8380,16 @@
         <v>54</v>
       </c>
       <c r="E133" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F133">
         <v>160</v>
       </c>
       <c r="G133">
-        <v>832.459123351673</v>
+        <v>861.98707540968</v>
       </c>
       <c r="H133">
-        <v>7900</v>
+        <v>9183.53699792155</v>
       </c>
       <c r="I133">
         <v>3600</v>
@@ -8398,7 +8401,7 @@
         <v>39.6551724137931</v>
       </c>
       <c r="L133">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="M133">
         <v>1500</v>
@@ -8413,19 +8416,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q133" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R133" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S133" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T133" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U133" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="134" spans="1:21">
@@ -8442,16 +8445,16 @@
         <v>54</v>
       </c>
       <c r="E134" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F134">
         <v>160</v>
       </c>
       <c r="G134">
-        <v>832.459123351673</v>
+        <v>861.98707540968</v>
       </c>
       <c r="H134">
-        <v>7900</v>
+        <v>9183.53699792155</v>
       </c>
       <c r="I134">
         <v>3600</v>
@@ -8463,7 +8466,7 @@
         <v>39.6551724137931</v>
       </c>
       <c r="L134">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="M134">
         <v>1500</v>
@@ -8478,19 +8481,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q134" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R134" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S134" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T134" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U134" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="135" spans="1:21">
@@ -8507,16 +8510,16 @@
         <v>54</v>
       </c>
       <c r="E135" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F135">
         <v>160</v>
       </c>
       <c r="G135">
-        <v>832.459123351673</v>
+        <v>861.98707540968</v>
       </c>
       <c r="H135">
-        <v>7900</v>
+        <v>9183.53699792155</v>
       </c>
       <c r="I135">
         <v>3600</v>
@@ -8528,7 +8531,7 @@
         <v>39.6551724137931</v>
       </c>
       <c r="L135">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="M135">
         <v>1500</v>
@@ -8543,19 +8546,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q135" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R135" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S135" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T135" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U135" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="136" spans="1:21">
@@ -8572,16 +8575,16 @@
         <v>54</v>
       </c>
       <c r="E136" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F136">
         <v>160</v>
       </c>
       <c r="G136">
-        <v>832.459123351673</v>
+        <v>861.98707540968</v>
       </c>
       <c r="H136">
-        <v>7900</v>
+        <v>9183.53699792155</v>
       </c>
       <c r="I136">
         <v>3600</v>
@@ -8593,7 +8596,7 @@
         <v>39.6551724137931</v>
       </c>
       <c r="L136">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="M136">
         <v>1500</v>
@@ -8608,19 +8611,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q136" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R136" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S136" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T136" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U136" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="137" spans="1:21">
@@ -8637,7 +8640,7 @@
         <v>54</v>
       </c>
       <c r="E137" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F137">
         <v>88</v>
@@ -8652,7 +8655,7 @@
         <v>95.29000000000001</v>
       </c>
       <c r="L137">
-        <v>88.545</v>
+        <v>88</v>
       </c>
       <c r="M137">
         <v>93.12</v>
@@ -8667,16 +8670,16 @@
         <v>5523563.134</v>
       </c>
       <c r="Q137" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R137" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S137" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T137" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="138" spans="1:21">
@@ -8693,13 +8696,13 @@
         <v>54</v>
       </c>
       <c r="E138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F138">
-        <v>0.00336</v>
+        <v>0.00335</v>
       </c>
       <c r="G138">
-        <v>0.0073735314861856</v>
+        <v>0.0073385336975768</v>
       </c>
       <c r="H138">
         <v>0.1</v>
@@ -8708,10 +8711,10 @@
         <v>0.02642</v>
       </c>
       <c r="L138">
-        <v>0.00643</v>
+        <v>0.00468</v>
       </c>
       <c r="M138">
-        <v>0.009849999999999999</v>
+        <v>0.009809999999999999</v>
       </c>
       <c r="N138">
         <v>0.01567</v>
@@ -8723,19 +8726,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q138" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R138" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S138" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T138" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U138" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="139" spans="1:21">
@@ -8752,13 +8755,13 @@
         <v>54</v>
       </c>
       <c r="E139" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F139">
-        <v>0.00336</v>
+        <v>0.00335</v>
       </c>
       <c r="G139">
-        <v>0.0073735314861856</v>
+        <v>0.0073385336975768</v>
       </c>
       <c r="H139">
         <v>0.1</v>
@@ -8767,10 +8770,10 @@
         <v>0.02642</v>
       </c>
       <c r="L139">
-        <v>0.00643</v>
+        <v>0.00468</v>
       </c>
       <c r="M139">
-        <v>0.009849999999999999</v>
+        <v>0.009809999999999999</v>
       </c>
       <c r="N139">
         <v>0.01567</v>
@@ -8782,19 +8785,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q139" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R139" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S139" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T139" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U139" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="140" spans="1:21">
@@ -8811,13 +8814,13 @@
         <v>54</v>
       </c>
       <c r="E140" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F140">
         <v>0.718</v>
       </c>
       <c r="G140">
-        <v>0.727071286718407</v>
+        <v>0.727053207145224</v>
       </c>
       <c r="H140">
         <v>1.6</v>
@@ -8826,7 +8829,7 @@
         <v>1.364</v>
       </c>
       <c r="L140">
-        <v>0.475</v>
+        <v>0.491</v>
       </c>
       <c r="M140">
         <v>1.2028</v>
@@ -8841,19 +8844,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q140" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R140" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S140" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T140" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U140" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="141" spans="1:21">
@@ -8870,13 +8873,13 @@
         <v>54</v>
       </c>
       <c r="E141" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F141">
         <v>0.718</v>
       </c>
       <c r="G141">
-        <v>0.727071286718407</v>
+        <v>0.727053207145224</v>
       </c>
       <c r="H141">
         <v>1.6</v>
@@ -8885,7 +8888,7 @@
         <v>1.364</v>
       </c>
       <c r="L141">
-        <v>0.475</v>
+        <v>0.491</v>
       </c>
       <c r="M141">
         <v>1.2028</v>
@@ -8900,19 +8903,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q141" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R141" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S141" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T141" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U141" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="142" spans="1:21">
@@ -8929,7 +8932,7 @@
         <v>54</v>
       </c>
       <c r="E142" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F142">
         <v>5.259</v>
@@ -8944,7 +8947,7 @@
         <v>6.55</v>
       </c>
       <c r="L142">
-        <v>5.2745</v>
+        <v>5.259</v>
       </c>
       <c r="M142">
         <v>6.109</v>
@@ -8959,16 +8962,16 @@
         <v>5523563.134</v>
       </c>
       <c r="Q142" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R142" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S142" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T142" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="143" spans="1:21">
@@ -8982,7 +8985,7 @@
         <v>54</v>
       </c>
       <c r="E143" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F143">
         <v>0.728</v>
@@ -8997,7 +9000,7 @@
         <v>1.373</v>
       </c>
       <c r="L143">
-        <v>0.48</v>
+        <v>0.495</v>
       </c>
       <c r="M143">
         <v>1.20618</v>
@@ -9012,19 +9015,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q143" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R143" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S143" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T143" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U143" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="144" spans="1:21">
@@ -9038,7 +9041,7 @@
         <v>54</v>
       </c>
       <c r="E144" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F144">
         <v>0.728</v>
@@ -9053,7 +9056,7 @@
         <v>1.373</v>
       </c>
       <c r="L144">
-        <v>0.48</v>
+        <v>0.495</v>
       </c>
       <c r="M144">
         <v>1.20618</v>
@@ -9068,19 +9071,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q144" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R144" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S144" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T144" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U144" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="145" spans="1:21">
@@ -9094,7 +9097,7 @@
         <v>54</v>
       </c>
       <c r="E145" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F145">
         <v>0.92</v>
@@ -9109,7 +9112,7 @@
         <v>1.482</v>
       </c>
       <c r="L145">
-        <v>0.665</v>
+        <v>0.67</v>
       </c>
       <c r="M145">
         <v>1.3084</v>
@@ -9124,19 +9127,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q145" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R145" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S145" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T145" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U145" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="146" spans="1:21">
@@ -9150,7 +9153,7 @@
         <v>54</v>
       </c>
       <c r="E146" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F146">
         <v>0.92</v>
@@ -9165,7 +9168,7 @@
         <v>1.482</v>
       </c>
       <c r="L146">
-        <v>0.665</v>
+        <v>0.67</v>
       </c>
       <c r="M146">
         <v>1.3084</v>
@@ -9180,19 +9183,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q146" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R146" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S146" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T146" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U146" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="147" spans="1:21">
@@ -9206,7 +9209,7 @@
         <v>54</v>
       </c>
       <c r="E147" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F147">
         <v>0.015</v>
@@ -9221,7 +9224,7 @@
         <v>0.0886</v>
       </c>
       <c r="L147">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="M147">
         <v>0.03692</v>
@@ -9236,19 +9239,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q147" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R147" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S147" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T147" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U147" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="148" spans="1:21">
@@ -9262,7 +9265,7 @@
         <v>54</v>
       </c>
       <c r="E148" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F148">
         <v>0.015</v>
@@ -9277,7 +9280,7 @@
         <v>0.0886</v>
       </c>
       <c r="L148">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="M148">
         <v>0.03692</v>
@@ -9292,19 +9295,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q148" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R148" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S148" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T148" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U148" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="149" spans="1:21">
@@ -9321,7 +9324,7 @@
         <v>55</v>
       </c>
       <c r="E149" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F149">
         <v>0.356</v>
@@ -9336,7 +9339,7 @@
         <v>0.41</v>
       </c>
       <c r="L149">
-        <v>0.3215</v>
+        <v>0.356</v>
       </c>
       <c r="M149">
         <v>0.396</v>
@@ -9351,16 +9354,16 @@
         <v>5523563.134</v>
       </c>
       <c r="Q149" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R149" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S149" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T149" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="150" spans="1:21">
@@ -9377,7 +9380,7 @@
         <v>55</v>
       </c>
       <c r="E150" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F150">
         <v>35.5</v>
@@ -9392,7 +9395,7 @@
         <v>113</v>
       </c>
       <c r="L150">
-        <v>30.5</v>
+        <v>19.5</v>
       </c>
       <c r="M150">
         <v>80.2</v>
@@ -9407,19 +9410,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q150" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R150" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S150" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T150" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U150" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="151" spans="1:21">
@@ -9436,7 +9439,7 @@
         <v>55</v>
       </c>
       <c r="E151" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F151">
         <v>1.295</v>
@@ -9451,7 +9454,7 @@
         <v>4.3</v>
       </c>
       <c r="L151">
-        <v>2.03</v>
+        <v>1.78</v>
       </c>
       <c r="M151">
         <v>3.3984</v>
@@ -9466,19 +9469,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q151" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R151" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S151" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T151" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U151" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="152" spans="1:21">
@@ -9495,13 +9498,13 @@
         <v>55</v>
       </c>
       <c r="E152" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F152">
         <v>0.006</v>
       </c>
       <c r="G152">
-        <v>0.0071860535258192</v>
+        <v>0.0071897360608574</v>
       </c>
       <c r="H152">
         <v>0.027</v>
@@ -9510,7 +9513,7 @@
         <v>0.016</v>
       </c>
       <c r="L152">
-        <v>0.005</v>
+        <v>0.0055</v>
       </c>
       <c r="M152">
         <v>0.01081</v>
@@ -9525,19 +9528,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q152" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R152" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S152" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T152" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U152" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="153" spans="1:21">
@@ -9554,13 +9557,13 @@
         <v>55</v>
       </c>
       <c r="E153" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F153">
         <v>0.006</v>
       </c>
       <c r="G153">
-        <v>0.0071860535258192</v>
+        <v>0.0071897360608574</v>
       </c>
       <c r="H153">
         <v>0.027</v>
@@ -9569,7 +9572,7 @@
         <v>0.016</v>
       </c>
       <c r="L153">
-        <v>0.005</v>
+        <v>0.0055</v>
       </c>
       <c r="M153">
         <v>0.01081</v>
@@ -9584,19 +9587,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q153" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R153" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S153" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T153" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U153" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="154" spans="1:21">
@@ -9613,19 +9616,19 @@
         <v>55</v>
       </c>
       <c r="E154" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F154">
         <v>170</v>
       </c>
       <c r="G154">
-        <v>1251.45439749293</v>
+        <v>1208.19237514665</v>
       </c>
       <c r="H154">
-        <v>14776.2715026999</v>
+        <v>10597.9150095976</v>
       </c>
       <c r="I154">
-        <v>7749.8507</v>
+        <v>7900</v>
       </c>
       <c r="J154">
         <v>35.0877192982456</v>
@@ -9634,10 +9637,10 @@
         <v>47.3684210526316</v>
       </c>
       <c r="L154">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="M154">
-        <v>1970.36</v>
+        <v>1970.436</v>
       </c>
       <c r="N154">
         <v>4110</v>
@@ -9649,19 +9652,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q154" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R154" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S154" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T154" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U154" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="155" spans="1:21">
@@ -9678,19 +9681,19 @@
         <v>55</v>
       </c>
       <c r="E155" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F155">
         <v>170</v>
       </c>
       <c r="G155">
-        <v>1251.45439749293</v>
+        <v>1208.19237514665</v>
       </c>
       <c r="H155">
-        <v>14776.2715026999</v>
+        <v>10597.9150095976</v>
       </c>
       <c r="I155">
-        <v>7749.8507</v>
+        <v>7900</v>
       </c>
       <c r="J155">
         <v>35.0877192982456</v>
@@ -9699,10 +9702,10 @@
         <v>47.3684210526316</v>
       </c>
       <c r="L155">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="M155">
-        <v>1970.36</v>
+        <v>1970.436</v>
       </c>
       <c r="N155">
         <v>4110</v>
@@ -9714,19 +9717,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q155" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R155" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S155" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T155" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U155" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="156" spans="1:21">
@@ -9743,19 +9746,19 @@
         <v>55</v>
       </c>
       <c r="E156" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F156">
         <v>170</v>
       </c>
       <c r="G156">
-        <v>1251.45439749293</v>
+        <v>1208.19237514665</v>
       </c>
       <c r="H156">
-        <v>14776.2715026999</v>
+        <v>10597.9150095976</v>
       </c>
       <c r="I156">
-        <v>7749.8507</v>
+        <v>7900</v>
       </c>
       <c r="J156">
         <v>35.0877192982456</v>
@@ -9764,10 +9767,10 @@
         <v>47.3684210526316</v>
       </c>
       <c r="L156">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="M156">
-        <v>1970.36</v>
+        <v>1970.436</v>
       </c>
       <c r="N156">
         <v>4110</v>
@@ -9779,19 +9782,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q156" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R156" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S156" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T156" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U156" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="157" spans="1:21">
@@ -9808,19 +9811,19 @@
         <v>55</v>
       </c>
       <c r="E157" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F157">
         <v>170</v>
       </c>
       <c r="G157">
-        <v>1251.45439749293</v>
+        <v>1208.19237514665</v>
       </c>
       <c r="H157">
-        <v>14776.2715026999</v>
+        <v>10597.9150095976</v>
       </c>
       <c r="I157">
-        <v>7749.8507</v>
+        <v>7900</v>
       </c>
       <c r="J157">
         <v>35.0877192982456</v>
@@ -9829,10 +9832,10 @@
         <v>47.3684210526316</v>
       </c>
       <c r="L157">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="M157">
-        <v>1970.36</v>
+        <v>1970.436</v>
       </c>
       <c r="N157">
         <v>4110</v>
@@ -9844,19 +9847,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q157" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R157" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S157" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T157" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U157" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="158" spans="1:21">
@@ -9867,13 +9870,13 @@
         <v>31</v>
       </c>
       <c r="C158" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D158" t="s">
         <v>55</v>
       </c>
       <c r="E158" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F158">
         <v>89.09</v>
@@ -9888,7 +9891,7 @@
         <v>110</v>
       </c>
       <c r="L158">
-        <v>92.19</v>
+        <v>89.09</v>
       </c>
       <c r="M158">
         <v>104.8515</v>
@@ -9903,16 +9906,16 @@
         <v>5523563.134</v>
       </c>
       <c r="Q158" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R158" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S158" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T158" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="159" spans="1:21">
@@ -9929,13 +9932,13 @@
         <v>55</v>
       </c>
       <c r="E159" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F159">
-        <v>0.00557</v>
+        <v>0.00545</v>
       </c>
       <c r="G159">
-        <v>0.0093051711559784</v>
+        <v>0.0092763056007587</v>
       </c>
       <c r="H159">
         <v>0.1</v>
@@ -9944,7 +9947,7 @@
         <v>0.02692</v>
       </c>
       <c r="L159">
-        <v>0.00842</v>
+        <v>0.00665</v>
       </c>
       <c r="M159">
         <v>0.01081</v>
@@ -9959,19 +9962,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q159" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R159" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S159" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T159" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U159" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="160" spans="1:21">
@@ -9988,13 +9991,13 @@
         <v>55</v>
       </c>
       <c r="E160" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F160">
-        <v>0.00557</v>
+        <v>0.00545</v>
       </c>
       <c r="G160">
-        <v>0.0093051711559784</v>
+        <v>0.0092763056007587</v>
       </c>
       <c r="H160">
         <v>0.1</v>
@@ -10003,7 +10006,7 @@
         <v>0.02692</v>
       </c>
       <c r="L160">
-        <v>0.00842</v>
+        <v>0.00665</v>
       </c>
       <c r="M160">
         <v>0.01081</v>
@@ -10018,19 +10021,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q160" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R160" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S160" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T160" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U160" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="161" spans="1:21">
@@ -10047,7 +10050,7 @@
         <v>55</v>
       </c>
       <c r="E161" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F161">
         <v>0.729</v>
@@ -10062,7 +10065,7 @@
         <v>1.3265</v>
       </c>
       <c r="L161">
-        <v>0.492</v>
+        <v>0.538</v>
       </c>
       <c r="M161">
         <v>1.1181</v>
@@ -10077,19 +10080,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q161" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R161" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S161" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T161" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U161" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="162" spans="1:21">
@@ -10106,7 +10109,7 @@
         <v>55</v>
       </c>
       <c r="E162" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F162">
         <v>0.729</v>
@@ -10121,7 +10124,7 @@
         <v>1.3265</v>
       </c>
       <c r="L162">
-        <v>0.492</v>
+        <v>0.538</v>
       </c>
       <c r="M162">
         <v>1.1181</v>
@@ -10136,19 +10139,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q162" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R162" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S162" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T162" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U162" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="163" spans="1:21">
@@ -10165,7 +10168,7 @@
         <v>55</v>
       </c>
       <c r="E163" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F163">
         <v>4.78</v>
@@ -10180,7 +10183,7 @@
         <v>5.29</v>
       </c>
       <c r="L163">
-        <v>5.0195</v>
+        <v>4.78</v>
       </c>
       <c r="M163">
         <v>5.27915</v>
@@ -10195,16 +10198,16 @@
         <v>5523563.134</v>
       </c>
       <c r="Q163" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R163" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S163" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T163" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="164" spans="1:21">
@@ -10218,7 +10221,7 @@
         <v>55</v>
       </c>
       <c r="E164" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F164">
         <v>0.74</v>
@@ -10233,7 +10236,7 @@
         <v>1.348</v>
       </c>
       <c r="L164">
-        <v>0.501</v>
+        <v>0.5655</v>
       </c>
       <c r="M164">
         <v>1.13543</v>
@@ -10248,19 +10251,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q164" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R164" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S164" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T164" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U164" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="165" spans="1:21">
@@ -10274,7 +10277,7 @@
         <v>55</v>
       </c>
       <c r="E165" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F165">
         <v>0.74</v>
@@ -10289,7 +10292,7 @@
         <v>1.348</v>
       </c>
       <c r="L165">
-        <v>0.501</v>
+        <v>0.5655</v>
       </c>
       <c r="M165">
         <v>1.13543</v>
@@ -10304,19 +10307,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q165" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R165" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S165" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T165" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U165" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="166" spans="1:21">
@@ -10330,7 +10333,7 @@
         <v>55</v>
       </c>
       <c r="E166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F166">
         <v>0.96</v>
@@ -10345,7 +10348,7 @@
         <v>1.429</v>
       </c>
       <c r="L166">
-        <v>0.67</v>
+        <v>0.715</v>
       </c>
       <c r="M166">
         <v>1.2781</v>
@@ -10360,19 +10363,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R166" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S166" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T166" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U166" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="167" spans="1:21">
@@ -10386,7 +10389,7 @@
         <v>55</v>
       </c>
       <c r="E167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F167">
         <v>0.96</v>
@@ -10401,7 +10404,7 @@
         <v>1.429</v>
       </c>
       <c r="L167">
-        <v>0.67</v>
+        <v>0.715</v>
       </c>
       <c r="M167">
         <v>1.2781</v>
@@ -10416,19 +10419,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R167" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S167" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T167" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U167" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="168" spans="1:21">
@@ -10442,7 +10445,7 @@
         <v>55</v>
       </c>
       <c r="E168" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F168">
         <v>0.016</v>
@@ -10457,7 +10460,7 @@
         <v>0.11595</v>
       </c>
       <c r="L168">
-        <v>0.014</v>
+        <v>0.0145</v>
       </c>
       <c r="M168">
         <v>0.05696</v>
@@ -10472,19 +10475,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q168" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R168" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S168" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T168" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U168" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="169" spans="1:21">
@@ -10498,7 +10501,7 @@
         <v>55</v>
       </c>
       <c r="E169" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F169">
         <v>0.016</v>
@@ -10513,7 +10516,7 @@
         <v>0.11595</v>
       </c>
       <c r="L169">
-        <v>0.014</v>
+        <v>0.0145</v>
       </c>
       <c r="M169">
         <v>0.05696</v>
@@ -10528,19 +10531,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q169" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R169" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S169" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T169" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U169" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="170" spans="1:21">
@@ -10557,7 +10560,7 @@
         <v>56</v>
       </c>
       <c r="E170" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F170">
         <v>0.356</v>
@@ -10572,7 +10575,7 @@
         <v>0.41</v>
       </c>
       <c r="L170">
-        <v>0.363</v>
+        <v>0.356</v>
       </c>
       <c r="M170">
         <v>0.396</v>
@@ -10587,16 +10590,16 @@
         <v>5523563.134</v>
       </c>
       <c r="Q170" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R170" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S170" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T170" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="171" spans="1:21">
@@ -10613,7 +10616,7 @@
         <v>56</v>
       </c>
       <c r="E171" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F171">
         <v>44</v>
@@ -10643,19 +10646,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q171" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R171" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S171" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T171" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U171" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="172" spans="1:21">
@@ -10672,7 +10675,7 @@
         <v>56</v>
       </c>
       <c r="E172" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F172">
         <v>0.85</v>
@@ -10687,7 +10690,7 @@
         <v>5.265</v>
       </c>
       <c r="L172">
-        <v>0.85</v>
+        <v>1.6</v>
       </c>
       <c r="M172">
         <v>3.867</v>
@@ -10702,19 +10705,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q172" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R172" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S172" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T172" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U172" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="173" spans="1:21">
@@ -10731,13 +10734,13 @@
         <v>56</v>
       </c>
       <c r="E173" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F173">
         <v>0.006</v>
       </c>
       <c r="G173">
-        <v>0.0069255219522861</v>
+        <v>0.0069279769626364</v>
       </c>
       <c r="H173">
         <v>0.027</v>
@@ -10761,19 +10764,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q173" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R173" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S173" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T173" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U173" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="174" spans="1:21">
@@ -10790,13 +10793,13 @@
         <v>56</v>
       </c>
       <c r="E174" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F174">
         <v>0.006</v>
       </c>
       <c r="G174">
-        <v>0.0069255219522861</v>
+        <v>0.0069279769626364</v>
       </c>
       <c r="H174">
         <v>0.027</v>
@@ -10820,19 +10823,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q174" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R174" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S174" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T174" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U174" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="175" spans="1:21">
@@ -10849,19 +10852,19 @@
         <v>56</v>
       </c>
       <c r="E175" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F175">
         <v>160</v>
       </c>
       <c r="G175">
-        <v>1245.50702907188</v>
+        <v>1202.25904181332</v>
       </c>
       <c r="H175">
-        <v>14776.2715026999</v>
+        <v>10597.9150095976</v>
       </c>
       <c r="I175">
-        <v>7749.8507</v>
+        <v>7900</v>
       </c>
       <c r="J175">
         <v>36.8421052631579</v>
@@ -10870,13 +10873,13 @@
         <v>45.6140350877193</v>
       </c>
       <c r="L175">
-        <v>267</v>
+        <v>166.8</v>
       </c>
       <c r="M175">
-        <v>1970.36</v>
+        <v>1970.436</v>
       </c>
       <c r="N175">
-        <v>3848.68</v>
+        <v>3848.304</v>
       </c>
       <c r="O175">
         <v>1844630.998</v>
@@ -10885,19 +10888,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q175" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R175" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S175" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T175" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U175" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="176" spans="1:21">
@@ -10914,19 +10917,19 @@
         <v>56</v>
       </c>
       <c r="E176" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F176">
         <v>160</v>
       </c>
       <c r="G176">
-        <v>1245.50702907188</v>
+        <v>1202.25904181332</v>
       </c>
       <c r="H176">
-        <v>14776.2715026999</v>
+        <v>10597.9150095976</v>
       </c>
       <c r="I176">
-        <v>7749.8507</v>
+        <v>7900</v>
       </c>
       <c r="J176">
         <v>36.8421052631579</v>
@@ -10935,13 +10938,13 @@
         <v>45.6140350877193</v>
       </c>
       <c r="L176">
-        <v>267</v>
+        <v>166.8</v>
       </c>
       <c r="M176">
-        <v>1970.36</v>
+        <v>1970.436</v>
       </c>
       <c r="N176">
-        <v>3848.68</v>
+        <v>3848.304</v>
       </c>
       <c r="O176">
         <v>1844630.998</v>
@@ -10950,19 +10953,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q176" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R176" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S176" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T176" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U176" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="177" spans="1:21">
@@ -10979,19 +10982,19 @@
         <v>56</v>
       </c>
       <c r="E177" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F177">
         <v>160</v>
       </c>
       <c r="G177">
-        <v>1245.50702907188</v>
+        <v>1202.25904181332</v>
       </c>
       <c r="H177">
-        <v>14776.2715026999</v>
+        <v>10597.9150095976</v>
       </c>
       <c r="I177">
-        <v>7749.8507</v>
+        <v>7900</v>
       </c>
       <c r="J177">
         <v>36.8421052631579</v>
@@ -11000,13 +11003,13 @@
         <v>45.6140350877193</v>
       </c>
       <c r="L177">
-        <v>267</v>
+        <v>166.8</v>
       </c>
       <c r="M177">
-        <v>1970.36</v>
+        <v>1970.436</v>
       </c>
       <c r="N177">
-        <v>3848.68</v>
+        <v>3848.304</v>
       </c>
       <c r="O177">
         <v>1844630.998</v>
@@ -11015,19 +11018,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q177" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R177" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S177" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T177" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U177" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="178" spans="1:21">
@@ -11044,19 +11047,19 @@
         <v>56</v>
       </c>
       <c r="E178" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F178">
         <v>160</v>
       </c>
       <c r="G178">
-        <v>1245.50702907188</v>
+        <v>1202.25904181332</v>
       </c>
       <c r="H178">
-        <v>14776.2715026999</v>
+        <v>10597.9150095976</v>
       </c>
       <c r="I178">
-        <v>7749.8507</v>
+        <v>7900</v>
       </c>
       <c r="J178">
         <v>36.8421052631579</v>
@@ -11065,13 +11068,13 @@
         <v>45.6140350877193</v>
       </c>
       <c r="L178">
-        <v>267</v>
+        <v>166.8</v>
       </c>
       <c r="M178">
-        <v>1970.36</v>
+        <v>1970.436</v>
       </c>
       <c r="N178">
-        <v>3848.68</v>
+        <v>3848.304</v>
       </c>
       <c r="O178">
         <v>1844630.998</v>
@@ -11080,19 +11083,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q178" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R178" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S178" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T178" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U178" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="179" spans="1:21">
@@ -11109,7 +11112,7 @@
         <v>56</v>
       </c>
       <c r="E179" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F179">
         <v>95.29000000000001</v>
@@ -11124,7 +11127,7 @@
         <v>110</v>
       </c>
       <c r="L179">
-        <v>96.395</v>
+        <v>95.29000000000001</v>
       </c>
       <c r="M179">
         <v>105.625</v>
@@ -11139,16 +11142,16 @@
         <v>5523563.134</v>
       </c>
       <c r="Q179" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R179" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S179" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T179" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="180" spans="1:21">
@@ -11165,13 +11168,13 @@
         <v>56</v>
       </c>
       <c r="E180" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F180">
         <v>0.00658</v>
       </c>
       <c r="G180">
-        <v>0.0102317497209716</v>
+        <v>0.0102132544980146</v>
       </c>
       <c r="H180">
         <v>0.1</v>
@@ -11180,7 +11183,7 @@
         <v>0.03379</v>
       </c>
       <c r="L180">
-        <v>0.00834</v>
+        <v>0.00829</v>
       </c>
       <c r="M180">
         <v>0.01436</v>
@@ -11195,19 +11198,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q180" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R180" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S180" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T180" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U180" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="181" spans="1:21">
@@ -11224,13 +11227,13 @@
         <v>56</v>
       </c>
       <c r="E181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F181">
         <v>0.00658</v>
       </c>
       <c r="G181">
-        <v>0.0102317497209716</v>
+        <v>0.0102132544980146</v>
       </c>
       <c r="H181">
         <v>0.1</v>
@@ -11239,7 +11242,7 @@
         <v>0.03379</v>
       </c>
       <c r="L181">
-        <v>0.00834</v>
+        <v>0.00829</v>
       </c>
       <c r="M181">
         <v>0.01436</v>
@@ -11254,19 +11257,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R181" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S181" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T181" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U181" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="182" spans="1:21">
@@ -11283,7 +11286,7 @@
         <v>56</v>
       </c>
       <c r="E182" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F182">
         <v>0.743</v>
@@ -11298,7 +11301,7 @@
         <v>1.3265</v>
       </c>
       <c r="L182">
-        <v>0.492</v>
+        <v>0.538</v>
       </c>
       <c r="M182">
         <v>1.1181</v>
@@ -11313,19 +11316,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q182" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R182" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S182" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T182" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U182" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="183" spans="1:21">
@@ -11342,7 +11345,7 @@
         <v>56</v>
       </c>
       <c r="E183" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F183">
         <v>0.743</v>
@@ -11357,7 +11360,7 @@
         <v>1.3265</v>
       </c>
       <c r="L183">
-        <v>0.492</v>
+        <v>0.538</v>
       </c>
       <c r="M183">
         <v>1.1181</v>
@@ -11372,19 +11375,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q183" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R183" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S183" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T183" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U183" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="184" spans="1:21">
@@ -11401,7 +11404,7 @@
         <v>56</v>
       </c>
       <c r="E184" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F184">
         <v>5.259</v>
@@ -11416,7 +11419,7 @@
         <v>5.29</v>
       </c>
       <c r="L184">
-        <v>5.272</v>
+        <v>5.259</v>
       </c>
       <c r="M184">
         <v>5.28825</v>
@@ -11431,16 +11434,16 @@
         <v>5523563.134</v>
       </c>
       <c r="Q184" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R184" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S184" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T184" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="185" spans="1:21">
@@ -11454,7 +11457,7 @@
         <v>56</v>
       </c>
       <c r="E185" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F185">
         <v>0.748</v>
@@ -11469,7 +11472,7 @@
         <v>1.348</v>
       </c>
       <c r="L185">
-        <v>0.501</v>
+        <v>0.5655</v>
       </c>
       <c r="M185">
         <v>1.13543</v>
@@ -11484,19 +11487,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q185" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R185" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S185" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T185" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U185" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="186" spans="1:21">
@@ -11510,7 +11513,7 @@
         <v>56</v>
       </c>
       <c r="E186" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F186">
         <v>0.748</v>
@@ -11525,7 +11528,7 @@
         <v>1.348</v>
       </c>
       <c r="L186">
-        <v>0.501</v>
+        <v>0.5655</v>
       </c>
       <c r="M186">
         <v>1.13543</v>
@@ -11540,19 +11543,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q186" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R186" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S186" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T186" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U186" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="187" spans="1:21">
@@ -11566,7 +11569,7 @@
         <v>56</v>
       </c>
       <c r="E187" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F187">
         <v>0.98</v>
@@ -11581,7 +11584,7 @@
         <v>1.429</v>
       </c>
       <c r="L187">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M187">
         <v>1.28</v>
@@ -11596,19 +11599,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R187" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S187" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T187" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U187" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="188" spans="1:21">
@@ -11622,7 +11625,7 @@
         <v>56</v>
       </c>
       <c r="E188" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F188">
         <v>0.98</v>
@@ -11637,7 +11640,7 @@
         <v>1.429</v>
       </c>
       <c r="L188">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M188">
         <v>1.28</v>
@@ -11652,19 +11655,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R188" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S188" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T188" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U188" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="189" spans="1:21">
@@ -11678,7 +11681,7 @@
         <v>56</v>
       </c>
       <c r="E189" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F189">
         <v>0.015</v>
@@ -11693,7 +11696,7 @@
         <v>0.12115</v>
       </c>
       <c r="L189">
-        <v>0.013</v>
+        <v>0.0135</v>
       </c>
       <c r="M189">
         <v>0.06101</v>
@@ -11708,19 +11711,19 @@
         <v>5523563.134</v>
       </c>
       <c r="Q189" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R189" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S189" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T189" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U189" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="190" spans="1:21">
@@ -11734,7 +11737,7 @@
         <v>56</v>
       </c>
       <c r="E190" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F190">
         <v>0.015</v>
@@ -11749,7 +11752,7 @@
         <v>0.12115</v>
       </c>
       <c r="L190">
-        <v>0.013</v>
+        <v>0.0135</v>
       </c>
       <c r="M190">
         <v>0.06101</v>
@@ -11764,19 +11767,1196 @@
         <v>5523563.134</v>
       </c>
       <c r="Q190" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R190" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S190" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T190" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U190" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21">
+      <c r="A191" t="s">
+        <v>21</v>
+      </c>
+      <c r="B191" t="s">
+        <v>22</v>
+      </c>
+      <c r="C191" t="s">
+        <v>43</v>
+      </c>
+      <c r="D191" t="s">
+        <v>57</v>
+      </c>
+      <c r="E191" t="s">
+        <v>58</v>
+      </c>
+      <c r="F191">
+        <v>0.37</v>
+      </c>
+      <c r="G191">
+        <v>0.363</v>
+      </c>
+      <c r="H191">
+        <v>0.41</v>
+      </c>
+      <c r="I191">
+        <v>0.41</v>
+      </c>
+      <c r="L191">
+        <v>0.37</v>
+      </c>
+      <c r="M191">
+        <v>0.4086</v>
+      </c>
+      <c r="N191">
+        <v>0.41</v>
+      </c>
+      <c r="O191">
+        <v>1844630.998</v>
+      </c>
+      <c r="P191">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>59</v>
+      </c>
+      <c r="R191" t="s">
+        <v>60</v>
+      </c>
+      <c r="S191" t="s">
+        <v>61</v>
+      </c>
+      <c r="T191" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21">
+      <c r="A192" t="s">
+        <v>21</v>
+      </c>
+      <c r="B192" t="s">
+        <v>23</v>
+      </c>
+      <c r="C192" t="s">
+        <v>43</v>
+      </c>
+      <c r="D192" t="s">
+        <v>57</v>
+      </c>
+      <c r="E192" t="s">
+        <v>58</v>
+      </c>
+      <c r="F192">
+        <v>41.5</v>
+      </c>
+      <c r="G192">
+        <v>49.6911764705882</v>
+      </c>
+      <c r="H192">
+        <v>185</v>
+      </c>
+      <c r="I192">
+        <v>129</v>
+      </c>
+      <c r="L192">
+        <v>33.75</v>
+      </c>
+      <c r="M192">
+        <v>95</v>
+      </c>
+      <c r="N192">
+        <v>125</v>
+      </c>
+      <c r="O192">
+        <v>1844630.998</v>
+      </c>
+      <c r="P192">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>59</v>
+      </c>
+      <c r="R192" t="s">
+        <v>60</v>
+      </c>
+      <c r="S192" t="s">
+        <v>61</v>
+      </c>
+      <c r="T192" t="s">
+        <v>62</v>
+      </c>
+      <c r="U192" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21">
+      <c r="A193" t="s">
+        <v>21</v>
+      </c>
+      <c r="B193" t="s">
+        <v>25</v>
+      </c>
+      <c r="C193" t="s">
+        <v>45</v>
+      </c>
+      <c r="D193" t="s">
+        <v>57</v>
+      </c>
+      <c r="E193" t="s">
+        <v>58</v>
+      </c>
+      <c r="F193">
+        <v>0.005</v>
+      </c>
+      <c r="G193">
+        <v>0.0066724137931034</v>
+      </c>
+      <c r="H193">
+        <v>0.027</v>
+      </c>
+      <c r="I193">
+        <v>0.016</v>
+      </c>
+      <c r="L193">
+        <v>0.005</v>
+      </c>
+      <c r="M193">
+        <v>0.01</v>
+      </c>
+      <c r="N193">
+        <v>0.01372</v>
+      </c>
+      <c r="O193">
+        <v>1844630.998</v>
+      </c>
+      <c r="P193">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>59</v>
+      </c>
+      <c r="R193" t="s">
+        <v>60</v>
+      </c>
+      <c r="S193" t="s">
+        <v>61</v>
+      </c>
+      <c r="T193" t="s">
+        <v>62</v>
+      </c>
+      <c r="U193" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21">
+      <c r="A194" t="s">
+        <v>21</v>
+      </c>
+      <c r="B194" t="s">
+        <v>26</v>
+      </c>
+      <c r="C194" t="s">
+        <v>45</v>
+      </c>
+      <c r="D194" t="s">
+        <v>57</v>
+      </c>
+      <c r="E194" t="s">
+        <v>58</v>
+      </c>
+      <c r="F194">
+        <v>0.005</v>
+      </c>
+      <c r="G194">
+        <v>0.0066724137931034</v>
+      </c>
+      <c r="H194">
+        <v>0.027</v>
+      </c>
+      <c r="I194">
+        <v>0.016</v>
+      </c>
+      <c r="L194">
+        <v>0.005</v>
+      </c>
+      <c r="M194">
+        <v>0.01</v>
+      </c>
+      <c r="N194">
+        <v>0.01372</v>
+      </c>
+      <c r="O194">
+        <v>1844630.998</v>
+      </c>
+      <c r="P194">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>59</v>
+      </c>
+      <c r="R194" t="s">
+        <v>60</v>
+      </c>
+      <c r="S194" t="s">
+        <v>61</v>
+      </c>
+      <c r="T194" t="s">
+        <v>62</v>
+      </c>
+      <c r="U194" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21">
+      <c r="A195" t="s">
+        <v>21</v>
+      </c>
+      <c r="B195" t="s">
+        <v>27</v>
+      </c>
+      <c r="C195" t="s">
+        <v>47</v>
+      </c>
+      <c r="D195" t="s">
+        <v>57</v>
+      </c>
+      <c r="E195" t="s">
+        <v>58</v>
+      </c>
+      <c r="F195">
+        <v>150</v>
+      </c>
+      <c r="G195">
+        <v>1107.29412953261</v>
+      </c>
+      <c r="H195">
+        <v>10597.9150095976</v>
+      </c>
+      <c r="I195">
+        <v>7900</v>
+      </c>
+      <c r="J195">
+        <v>31.5789473684211</v>
+      </c>
+      <c r="K195">
+        <v>40.3508771929825</v>
+      </c>
+      <c r="L195">
+        <v>110</v>
+      </c>
+      <c r="M195">
+        <v>1500</v>
+      </c>
+      <c r="N195">
+        <v>3848.304</v>
+      </c>
+      <c r="O195">
+        <v>1844630.998</v>
+      </c>
+      <c r="P195">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>59</v>
+      </c>
+      <c r="R195" t="s">
+        <v>60</v>
+      </c>
+      <c r="S195" t="s">
+        <v>61</v>
+      </c>
+      <c r="T195" t="s">
+        <v>62</v>
+      </c>
+      <c r="U195" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21">
+      <c r="A196" t="s">
+        <v>21</v>
+      </c>
+      <c r="B196" t="s">
+        <v>28</v>
+      </c>
+      <c r="C196" t="s">
+        <v>46</v>
+      </c>
+      <c r="D196" t="s">
+        <v>57</v>
+      </c>
+      <c r="E196" t="s">
+        <v>58</v>
+      </c>
+      <c r="F196">
+        <v>150</v>
+      </c>
+      <c r="G196">
+        <v>1107.29412953261</v>
+      </c>
+      <c r="H196">
+        <v>10597.9150095976</v>
+      </c>
+      <c r="I196">
+        <v>7900</v>
+      </c>
+      <c r="J196">
+        <v>31.5789473684211</v>
+      </c>
+      <c r="K196">
+        <v>40.3508771929825</v>
+      </c>
+      <c r="L196">
+        <v>110</v>
+      </c>
+      <c r="M196">
+        <v>1500</v>
+      </c>
+      <c r="N196">
+        <v>3848.304</v>
+      </c>
+      <c r="O196">
+        <v>1844630.998</v>
+      </c>
+      <c r="P196">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>59</v>
+      </c>
+      <c r="R196" t="s">
+        <v>60</v>
+      </c>
+      <c r="S196" t="s">
+        <v>61</v>
+      </c>
+      <c r="T196" t="s">
+        <v>62</v>
+      </c>
+      <c r="U196" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21">
+      <c r="A197" t="s">
+        <v>21</v>
+      </c>
+      <c r="B197" t="s">
+        <v>29</v>
+      </c>
+      <c r="C197" t="s">
+        <v>47</v>
+      </c>
+      <c r="D197" t="s">
+        <v>57</v>
+      </c>
+      <c r="E197" t="s">
+        <v>58</v>
+      </c>
+      <c r="F197">
+        <v>150</v>
+      </c>
+      <c r="G197">
+        <v>1107.29412953261</v>
+      </c>
+      <c r="H197">
+        <v>10597.9150095976</v>
+      </c>
+      <c r="I197">
+        <v>7900</v>
+      </c>
+      <c r="J197">
+        <v>31.5789473684211</v>
+      </c>
+      <c r="K197">
+        <v>40.3508771929825</v>
+      </c>
+      <c r="L197">
+        <v>110</v>
+      </c>
+      <c r="M197">
+        <v>1500</v>
+      </c>
+      <c r="N197">
+        <v>3848.304</v>
+      </c>
+      <c r="O197">
+        <v>1844630.998</v>
+      </c>
+      <c r="P197">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>59</v>
+      </c>
+      <c r="R197" t="s">
+        <v>60</v>
+      </c>
+      <c r="S197" t="s">
+        <v>61</v>
+      </c>
+      <c r="T197" t="s">
+        <v>62</v>
+      </c>
+      <c r="U197" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21">
+      <c r="A198" t="s">
+        <v>21</v>
+      </c>
+      <c r="B198" t="s">
+        <v>30</v>
+      </c>
+      <c r="C198" t="s">
+        <v>46</v>
+      </c>
+      <c r="D198" t="s">
+        <v>57</v>
+      </c>
+      <c r="E198" t="s">
+        <v>58</v>
+      </c>
+      <c r="F198">
+        <v>150</v>
+      </c>
+      <c r="G198">
+        <v>1107.29412953261</v>
+      </c>
+      <c r="H198">
+        <v>10597.9150095976</v>
+      </c>
+      <c r="I198">
+        <v>7900</v>
+      </c>
+      <c r="J198">
+        <v>31.5789473684211</v>
+      </c>
+      <c r="K198">
+        <v>40.3508771929825</v>
+      </c>
+      <c r="L198">
+        <v>110</v>
+      </c>
+      <c r="M198">
+        <v>1500</v>
+      </c>
+      <c r="N198">
+        <v>3848.304</v>
+      </c>
+      <c r="O198">
+        <v>1844630.998</v>
+      </c>
+      <c r="P198">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>59</v>
+      </c>
+      <c r="R198" t="s">
+        <v>60</v>
+      </c>
+      <c r="S198" t="s">
+        <v>61</v>
+      </c>
+      <c r="T198" t="s">
+        <v>62</v>
+      </c>
+      <c r="U198" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21">
+      <c r="A199" t="s">
+        <v>21</v>
+      </c>
+      <c r="B199" t="s">
+        <v>31</v>
+      </c>
+      <c r="C199" t="s">
+        <v>43</v>
+      </c>
+      <c r="D199" t="s">
+        <v>57</v>
+      </c>
+      <c r="E199" t="s">
+        <v>58</v>
+      </c>
+      <c r="F199">
+        <v>97.5</v>
+      </c>
+      <c r="G199">
+        <v>97.908</v>
+      </c>
+      <c r="H199">
+        <v>110</v>
+      </c>
+      <c r="I199">
+        <v>110</v>
+      </c>
+      <c r="L199">
+        <v>97.5</v>
+      </c>
+      <c r="M199">
+        <v>106.0625</v>
+      </c>
+      <c r="N199">
+        <v>110</v>
+      </c>
+      <c r="O199">
+        <v>1844630.998</v>
+      </c>
+      <c r="P199">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>59</v>
+      </c>
+      <c r="R199" t="s">
+        <v>60</v>
+      </c>
+      <c r="S199" t="s">
+        <v>61</v>
+      </c>
+      <c r="T199" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21">
+      <c r="A200" t="s">
+        <v>21</v>
+      </c>
+      <c r="B200" t="s">
+        <v>32</v>
+      </c>
+      <c r="C200" t="s">
+        <v>45</v>
+      </c>
+      <c r="D200" t="s">
+        <v>57</v>
+      </c>
+      <c r="E200" t="s">
+        <v>58</v>
+      </c>
+      <c r="F200">
+        <v>0.00518</v>
+      </c>
+      <c r="G200">
+        <v>0.0080299505867505</v>
+      </c>
+      <c r="H200">
+        <v>0.044355510416864</v>
+      </c>
+      <c r="I200">
+        <v>0.02569</v>
+      </c>
+      <c r="L200">
+        <v>0.00643</v>
+      </c>
+      <c r="M200">
+        <v>0.0139</v>
+      </c>
+      <c r="N200">
+        <v>0.01979</v>
+      </c>
+      <c r="O200">
+        <v>1844630.998</v>
+      </c>
+      <c r="P200">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>59</v>
+      </c>
+      <c r="R200" t="s">
+        <v>60</v>
+      </c>
+      <c r="S200" t="s">
+        <v>61</v>
+      </c>
+      <c r="T200" t="s">
+        <v>62</v>
+      </c>
+      <c r="U200" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21">
+      <c r="A201" t="s">
+        <v>21</v>
+      </c>
+      <c r="B201" t="s">
+        <v>33</v>
+      </c>
+      <c r="C201" t="s">
+        <v>45</v>
+      </c>
+      <c r="D201" t="s">
+        <v>57</v>
+      </c>
+      <c r="E201" t="s">
+        <v>58</v>
+      </c>
+      <c r="F201">
+        <v>0.00518</v>
+      </c>
+      <c r="G201">
+        <v>0.0080299505867505</v>
+      </c>
+      <c r="H201">
+        <v>0.044355510416864</v>
+      </c>
+      <c r="I201">
+        <v>0.02569</v>
+      </c>
+      <c r="L201">
+        <v>0.00643</v>
+      </c>
+      <c r="M201">
+        <v>0.0139</v>
+      </c>
+      <c r="N201">
+        <v>0.01979</v>
+      </c>
+      <c r="O201">
+        <v>1844630.998</v>
+      </c>
+      <c r="P201">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>59</v>
+      </c>
+      <c r="R201" t="s">
+        <v>60</v>
+      </c>
+      <c r="S201" t="s">
+        <v>61</v>
+      </c>
+      <c r="T201" t="s">
+        <v>62</v>
+      </c>
+      <c r="U201" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21">
+      <c r="A202" t="s">
+        <v>21</v>
+      </c>
+      <c r="B202" t="s">
+        <v>34</v>
+      </c>
+      <c r="C202" t="s">
+        <v>45</v>
+      </c>
+      <c r="D202" t="s">
+        <v>57</v>
+      </c>
+      <c r="E202" t="s">
+        <v>58</v>
+      </c>
+      <c r="F202">
+        <v>0.7205</v>
+      </c>
+      <c r="G202">
+        <v>0.712086206896552</v>
+      </c>
+      <c r="H202">
+        <v>1.37</v>
+      </c>
+      <c r="I202">
+        <v>1.186</v>
+      </c>
+      <c r="L202">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="M202">
+        <v>1.0128</v>
+      </c>
+      <c r="N202">
+        <v>1.163</v>
+      </c>
+      <c r="O202">
+        <v>1844630.998</v>
+      </c>
+      <c r="P202">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>59</v>
+      </c>
+      <c r="R202" t="s">
+        <v>60</v>
+      </c>
+      <c r="S202" t="s">
+        <v>61</v>
+      </c>
+      <c r="T202" t="s">
+        <v>62</v>
+      </c>
+      <c r="U202" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21">
+      <c r="A203" t="s">
+        <v>21</v>
+      </c>
+      <c r="B203" t="s">
+        <v>35</v>
+      </c>
+      <c r="C203" t="s">
+        <v>45</v>
+      </c>
+      <c r="D203" t="s">
+        <v>57</v>
+      </c>
+      <c r="E203" t="s">
+        <v>58</v>
+      </c>
+      <c r="F203">
+        <v>0.7205</v>
+      </c>
+      <c r="G203">
+        <v>0.712086206896552</v>
+      </c>
+      <c r="H203">
+        <v>1.37</v>
+      </c>
+      <c r="I203">
+        <v>1.186</v>
+      </c>
+      <c r="L203">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="M203">
+        <v>1.0128</v>
+      </c>
+      <c r="N203">
+        <v>1.163</v>
+      </c>
+      <c r="O203">
+        <v>1844630.998</v>
+      </c>
+      <c r="P203">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>59</v>
+      </c>
+      <c r="R203" t="s">
+        <v>60</v>
+      </c>
+      <c r="S203" t="s">
+        <v>61</v>
+      </c>
+      <c r="T203" t="s">
+        <v>62</v>
+      </c>
+      <c r="U203" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21">
+      <c r="A204" t="s">
+        <v>21</v>
+      </c>
+      <c r="B204" t="s">
+        <v>36</v>
+      </c>
+      <c r="C204" t="s">
+        <v>43</v>
+      </c>
+      <c r="D204" t="s">
+        <v>57</v>
+      </c>
+      <c r="E204" t="s">
+        <v>58</v>
+      </c>
+      <c r="F204">
+        <v>5.259</v>
+      </c>
+      <c r="G204">
+        <v>5.1264</v>
+      </c>
+      <c r="H204">
+        <v>5.29</v>
+      </c>
+      <c r="I204">
+        <v>5.29</v>
+      </c>
+      <c r="L204">
+        <v>5.259</v>
+      </c>
+      <c r="M204">
+        <v>5.28825</v>
+      </c>
+      <c r="N204">
+        <v>5.29</v>
+      </c>
+      <c r="O204">
+        <v>1844630.998</v>
+      </c>
+      <c r="P204">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>59</v>
+      </c>
+      <c r="R204" t="s">
+        <v>60</v>
+      </c>
+      <c r="S204" t="s">
+        <v>61</v>
+      </c>
+      <c r="T204" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21">
+      <c r="A205" t="s">
+        <v>21</v>
+      </c>
+      <c r="B205" t="s">
+        <v>37</v>
+      </c>
+      <c r="D205" t="s">
+        <v>57</v>
+      </c>
+      <c r="E205" t="s">
+        <v>58</v>
+      </c>
+      <c r="F205">
+        <v>0.7325</v>
+      </c>
+      <c r="G205">
+        <v>0.728594827586207</v>
+      </c>
+      <c r="H205">
+        <v>1.389</v>
+      </c>
+      <c r="I205">
+        <v>1.1926</v>
+      </c>
+      <c r="L205">
+        <v>0.5865</v>
+      </c>
+      <c r="M205">
+        <v>1.02912</v>
+      </c>
+      <c r="N205">
+        <v>1.17986</v>
+      </c>
+      <c r="O205">
+        <v>1844630.998</v>
+      </c>
+      <c r="P205">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>59</v>
+      </c>
+      <c r="R205" t="s">
+        <v>60</v>
+      </c>
+      <c r="S205" t="s">
+        <v>61</v>
+      </c>
+      <c r="T205" t="s">
+        <v>62</v>
+      </c>
+      <c r="U205" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21">
+      <c r="A206" t="s">
+        <v>21</v>
+      </c>
+      <c r="B206" t="s">
+        <v>38</v>
+      </c>
+      <c r="D206" t="s">
+        <v>57</v>
+      </c>
+      <c r="E206" t="s">
+        <v>58</v>
+      </c>
+      <c r="F206">
+        <v>0.7325</v>
+      </c>
+      <c r="G206">
+        <v>0.728594827586207</v>
+      </c>
+      <c r="H206">
+        <v>1.389</v>
+      </c>
+      <c r="I206">
+        <v>1.1926</v>
+      </c>
+      <c r="L206">
+        <v>0.5865</v>
+      </c>
+      <c r="M206">
+        <v>1.02912</v>
+      </c>
+      <c r="N206">
+        <v>1.17986</v>
+      </c>
+      <c r="O206">
+        <v>1844630.998</v>
+      </c>
+      <c r="P206">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>59</v>
+      </c>
+      <c r="R206" t="s">
+        <v>60</v>
+      </c>
+      <c r="S206" t="s">
+        <v>61</v>
+      </c>
+      <c r="T206" t="s">
+        <v>62</v>
+      </c>
+      <c r="U206" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21">
+      <c r="A207" t="s">
+        <v>21</v>
+      </c>
+      <c r="B207" t="s">
+        <v>39</v>
+      </c>
+      <c r="D207" t="s">
+        <v>57</v>
+      </c>
+      <c r="E207" t="s">
+        <v>58</v>
+      </c>
+      <c r="F207">
+        <v>0.895</v>
+      </c>
+      <c r="G207">
+        <v>0.898448275862069</v>
+      </c>
+      <c r="H207">
+        <v>1.45</v>
+      </c>
+      <c r="I207">
+        <v>1.312</v>
+      </c>
+      <c r="L207">
+        <v>0.715</v>
+      </c>
+      <c r="M207">
+        <v>1.2056</v>
+      </c>
+      <c r="N207">
+        <v>1.2886</v>
+      </c>
+      <c r="O207">
+        <v>1844630.998</v>
+      </c>
+      <c r="P207">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>59</v>
+      </c>
+      <c r="R207" t="s">
+        <v>60</v>
+      </c>
+      <c r="S207" t="s">
+        <v>61</v>
+      </c>
+      <c r="T207" t="s">
+        <v>62</v>
+      </c>
+      <c r="U207" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21">
+      <c r="A208" t="s">
+        <v>21</v>
+      </c>
+      <c r="B208" t="s">
+        <v>40</v>
+      </c>
+      <c r="D208" t="s">
+        <v>57</v>
+      </c>
+      <c r="E208" t="s">
+        <v>58</v>
+      </c>
+      <c r="F208">
+        <v>0.895</v>
+      </c>
+      <c r="G208">
+        <v>0.898448275862069</v>
+      </c>
+      <c r="H208">
+        <v>1.45</v>
+      </c>
+      <c r="I208">
+        <v>1.312</v>
+      </c>
+      <c r="L208">
+        <v>0.715</v>
+      </c>
+      <c r="M208">
+        <v>1.2056</v>
+      </c>
+      <c r="N208">
+        <v>1.2886</v>
+      </c>
+      <c r="O208">
+        <v>1844630.998</v>
+      </c>
+      <c r="P208">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>59</v>
+      </c>
+      <c r="R208" t="s">
+        <v>60</v>
+      </c>
+      <c r="S208" t="s">
+        <v>61</v>
+      </c>
+      <c r="T208" t="s">
+        <v>62</v>
+      </c>
+      <c r="U208" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21">
+      <c r="A209" t="s">
+        <v>21</v>
+      </c>
+      <c r="B209" t="s">
+        <v>41</v>
+      </c>
+      <c r="D209" t="s">
+        <v>57</v>
+      </c>
+      <c r="E209" t="s">
+        <v>58</v>
+      </c>
+      <c r="F209">
+        <v>0.0145</v>
+      </c>
+      <c r="G209">
+        <v>0.0325172413793103</v>
+      </c>
+      <c r="H209">
+        <v>0.3</v>
+      </c>
+      <c r="I209">
+        <v>0.1206</v>
+      </c>
+      <c r="L209">
+        <v>0.013</v>
+      </c>
+      <c r="M209">
+        <v>0.04328</v>
+      </c>
+      <c r="N209">
+        <v>0.08885999999999999</v>
+      </c>
+      <c r="O209">
+        <v>1844630.998</v>
+      </c>
+      <c r="P209">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>59</v>
+      </c>
+      <c r="R209" t="s">
+        <v>60</v>
+      </c>
+      <c r="S209" t="s">
+        <v>61</v>
+      </c>
+      <c r="T209" t="s">
+        <v>62</v>
+      </c>
+      <c r="U209" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21">
+      <c r="A210" t="s">
+        <v>21</v>
+      </c>
+      <c r="B210" t="s">
+        <v>42</v>
+      </c>
+      <c r="D210" t="s">
+        <v>57</v>
+      </c>
+      <c r="E210" t="s">
+        <v>58</v>
+      </c>
+      <c r="F210">
+        <v>0.0145</v>
+      </c>
+      <c r="G210">
+        <v>0.0325172413793103</v>
+      </c>
+      <c r="H210">
+        <v>0.3</v>
+      </c>
+      <c r="I210">
+        <v>0.1206</v>
+      </c>
+      <c r="L210">
+        <v>0.013</v>
+      </c>
+      <c r="M210">
+        <v>0.04328</v>
+      </c>
+      <c r="N210">
+        <v>0.08885999999999999</v>
+      </c>
+      <c r="O210">
+        <v>1844630.998</v>
+      </c>
+      <c r="P210">
+        <v>5523563.134</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>59</v>
+      </c>
+      <c r="R210" t="s">
+        <v>60</v>
+      </c>
+      <c r="S210" t="s">
+        <v>61</v>
+      </c>
+      <c r="T210" t="s">
+        <v>62</v>
+      </c>
+      <c r="U210" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
